--- a/output7/【河洛文讀注音-閩拼調號】《寒窯賦》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《寒窯賦》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4B372A-06A9-4519-977E-4F4D034933F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2776B477-16E8-4194-A1F9-59AC139D12B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -6196,15 +6196,6 @@
     <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6223,6 +6214,15 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7793,7 +7793,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -7967,7 +7967,7 @@
         <v>785</v>
       </c>
       <c r="C20" s="56">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14558,24 +14558,24 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="58" t="s">
+      <c r="V3" s="64" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="58" t="s">
         <v>826</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -14586,7 +14586,7 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
-      <c r="V4" s="59"/>
+      <c r="V4" s="65"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="20">
@@ -14622,7 +14622,7 @@
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
       <c r="S5" s="21"/>
-      <c r="V5" s="59"/>
+      <c r="V5" s="65"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="22"/>
@@ -14649,7 +14649,7 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="25"/>
-      <c r="V6" s="59"/>
+      <c r="V6" s="65"/>
     </row>
     <row r="7" spans="1:22" s="30" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="27"/>
@@ -14670,11 +14670,11 @@
       <c r="Q7" s="54"/>
       <c r="R7" s="54"/>
       <c r="S7" s="29"/>
-      <c r="V7" s="59"/>
+      <c r="V7" s="65"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="61"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -14690,7 +14690,7 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="19"/>
-      <c r="V8" s="59"/>
+      <c r="V8" s="65"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="20">
@@ -14718,7 +14718,7 @@
       <c r="R9" s="41"/>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="59"/>
+      <c r="V9" s="65"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
@@ -14738,7 +14738,7 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="31"/>
-      <c r="V10" s="59"/>
+      <c r="V10" s="65"/>
     </row>
     <row r="11" spans="1:22" s="29" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="32"/>
@@ -14758,53 +14758,53 @@
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="54"/>
-      <c r="V11" s="59"/>
+      <c r="V11" s="65"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="58" t="s">
         <v>832</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="58" t="s">
         <v>834</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61" t="s">
+      <c r="J12" s="58"/>
+      <c r="K12" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="M12" s="61" t="s">
+      <c r="M12" s="58" t="s">
         <v>837</v>
       </c>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="O12" s="61" t="s">
+      <c r="O12" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="P12" s="61" t="s">
+      <c r="P12" s="58" t="s">
         <v>840</v>
       </c>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61" t="s">
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58" t="s">
         <v>842</v>
       </c>
       <c r="S12" s="19"/>
-      <c r="V12" s="59"/>
+      <c r="V12" s="65"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="20">
@@ -14857,7 +14857,7 @@
         <v>908</v>
       </c>
       <c r="S13" s="21"/>
-      <c r="V13" s="59"/>
+      <c r="V13" s="65"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
@@ -14903,7 +14903,7 @@
         <v>843</v>
       </c>
       <c r="S14" s="31"/>
-      <c r="V14" s="59"/>
+      <c r="V14" s="65"/>
     </row>
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -14929,51 +14929,51 @@
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="54"/>
-      <c r="V15" s="59"/>
+      <c r="V15" s="65"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="58" t="s">
         <v>846</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61" t="s">
+      <c r="G16" s="58"/>
+      <c r="H16" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="J16" s="58" t="s">
         <v>848</v>
       </c>
-      <c r="K16" s="61" t="s">
+      <c r="K16" s="58" t="s">
         <v>794</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61" t="s">
+      <c r="L16" s="58"/>
+      <c r="M16" s="58" t="s">
         <v>850</v>
       </c>
-      <c r="N16" s="61" t="s">
+      <c r="N16" s="58" t="s">
         <v>852</v>
       </c>
-      <c r="O16" s="61" t="s">
+      <c r="O16" s="58" t="s">
         <v>871</v>
       </c>
-      <c r="P16" s="61" t="s">
+      <c r="P16" s="58" t="s">
         <v>854</v>
       </c>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61" t="s">
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58" t="s">
         <v>214</v>
       </c>
       <c r="S16" s="19"/>
-      <c r="V16" s="59"/>
+      <c r="V16" s="65"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="20">
@@ -15026,7 +15026,7 @@
         <v>919</v>
       </c>
       <c r="S17" s="21"/>
-      <c r="V17" s="59"/>
+      <c r="V17" s="65"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
@@ -15070,7 +15070,7 @@
         <v>214</v>
       </c>
       <c r="S18" s="31"/>
-      <c r="V18" s="59"/>
+      <c r="V18" s="65"/>
     </row>
     <row r="19" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -15092,53 +15092,53 @@
       </c>
       <c r="Q19" s="54"/>
       <c r="R19" s="54"/>
-      <c r="V19" s="59"/>
+      <c r="V19" s="65"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="58" t="s">
         <v>855</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="58" t="s">
         <v>857</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61" t="s">
+      <c r="G20" s="58"/>
+      <c r="H20" s="58" t="s">
         <v>793</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="L20" s="61" t="s">
+      <c r="L20" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="M20" s="61" t="s">
+      <c r="M20" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61" t="s">
+      <c r="N20" s="58"/>
+      <c r="O20" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="P20" s="61" t="s">
+      <c r="P20" s="58" t="s">
         <v>872</v>
       </c>
-      <c r="Q20" s="61" t="s">
+      <c r="Q20" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="R20" s="61" t="s">
+      <c r="R20" s="58" t="s">
         <v>226</v>
       </c>
       <c r="S20" s="19"/>
-      <c r="V20" s="59"/>
+      <c r="V20" s="65"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="20">
@@ -15172,7 +15172,7 @@
       <c r="L21" s="45" t="s">
         <v>924</v>
       </c>
-      <c r="M21" s="62" t="s">
+      <c r="M21" s="59" t="s">
         <v>925</v>
       </c>
       <c r="N21" s="45" t="s">
@@ -15191,7 +15191,7 @@
         <v>928</v>
       </c>
       <c r="S21" s="21"/>
-      <c r="V21" s="59"/>
+      <c r="V21" s="65"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
@@ -15237,7 +15237,7 @@
         <v>792</v>
       </c>
       <c r="S22" s="31"/>
-      <c r="V22" s="59"/>
+      <c r="V22" s="65"/>
     </row>
     <row r="23" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
@@ -15259,53 +15259,53 @@
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
-      <c r="V23" s="59"/>
+      <c r="V23" s="65"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="58" t="s">
         <v>862</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="58" t="s">
         <v>864</v>
       </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61" t="s">
+      <c r="F24" s="58"/>
+      <c r="G24" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="58" t="s">
         <v>874</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="K24" s="61" t="s">
+      <c r="K24" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="L24" s="61" t="s">
+      <c r="L24" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61" t="s">
+      <c r="M24" s="58"/>
+      <c r="N24" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="O24" s="61" t="s">
+      <c r="O24" s="58" t="s">
         <v>949</v>
       </c>
-      <c r="P24" s="61" t="s">
+      <c r="P24" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="Q24" s="61" t="s">
+      <c r="Q24" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="R24" s="61" t="s">
+      <c r="R24" s="58" t="s">
         <v>862</v>
       </c>
       <c r="S24" s="19"/>
-      <c r="V24" s="59"/>
+      <c r="V24" s="65"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="20">
@@ -15358,7 +15358,7 @@
         <v>329</v>
       </c>
       <c r="S25" s="21"/>
-      <c r="V25" s="59"/>
+      <c r="V25" s="65"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
@@ -15404,7 +15404,7 @@
         <v>863</v>
       </c>
       <c r="S26" s="31"/>
-      <c r="V26" s="59"/>
+      <c r="V26" s="65"/>
     </row>
     <row r="27" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
@@ -15428,15 +15428,15 @@
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v>1</v>
       </c>
-      <c r="V27" s="59"/>
+      <c r="V27" s="65"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -15454,7 +15454,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V28" s="59"/>
+      <c r="V28" s="65"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="20">
@@ -15489,7 +15489,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V29" s="59"/>
+      <c r="V29" s="65"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
@@ -15515,7 +15515,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V30" s="59"/>
+      <c r="V30" s="65"/>
     </row>
     <row r="31" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
@@ -15539,11 +15539,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V31" s="59"/>
+      <c r="V31" s="65"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="61"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -15563,7 +15563,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V32" s="59"/>
+      <c r="V32" s="65"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="20">
@@ -15590,7 +15590,7 @@
       <c r="Q33" s="41"/>
       <c r="R33" s="41"/>
       <c r="S33" s="21"/>
-      <c r="V33" s="59"/>
+      <c r="V33" s="65"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
@@ -15610,7 +15610,7 @@
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
       <c r="S34" s="31"/>
-      <c r="V34" s="59"/>
+      <c r="V34" s="65"/>
     </row>
     <row r="35" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
@@ -15632,51 +15632,51 @@
       <c r="R35" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="V35" s="59"/>
+      <c r="V35" s="65"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="58" t="s">
         <v>952</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61" t="s">
+      <c r="F36" s="58"/>
+      <c r="G36" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H36" s="61" t="s">
+      <c r="H36" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="I36" s="61" t="s">
+      <c r="I36" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="J36" s="61" t="s">
+      <c r="J36" s="58" t="s">
         <v>955</v>
       </c>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61" t="s">
+      <c r="K36" s="58"/>
+      <c r="L36" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="M36" s="61" t="s">
+      <c r="M36" s="58" t="s">
         <v>957</v>
       </c>
-      <c r="N36" s="61" t="s">
+      <c r="N36" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="O36" s="61" t="s">
+      <c r="O36" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="P36" s="61" t="s">
+      <c r="P36" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61" t="s">
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58" t="s">
         <v>386</v>
       </c>
       <c r="S36" s="19"/>
-      <c r="V36" s="59"/>
+      <c r="V36" s="65"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="20">
@@ -15729,7 +15729,7 @@
         <v>342</v>
       </c>
       <c r="S37" s="21"/>
-      <c r="V37" s="59"/>
+      <c r="V37" s="65"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
@@ -15773,7 +15773,7 @@
         <v>1549</v>
       </c>
       <c r="S38" s="31"/>
-      <c r="V38" s="59"/>
+      <c r="V38" s="65"/>
     </row>
     <row r="39" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
@@ -15799,53 +15799,53 @@
       <c r="R39" s="54" t="s">
         <v>684</v>
       </c>
-      <c r="V39" s="59"/>
+      <c r="V39" s="65"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="58" t="s">
         <v>960</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="F40" s="61" t="s">
+      <c r="F40" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="G40" s="61" t="s">
+      <c r="G40" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61" t="s">
+      <c r="H40" s="58"/>
+      <c r="I40" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="J40" s="61" t="s">
+      <c r="J40" s="58" t="s">
         <v>1550</v>
       </c>
-      <c r="K40" s="61" t="s">
+      <c r="K40" s="58" t="s">
         <v>952</v>
       </c>
-      <c r="L40" s="61" t="s">
+      <c r="L40" s="58" t="s">
         <v>955</v>
       </c>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61" t="s">
+      <c r="M40" s="58"/>
+      <c r="N40" s="58" t="s">
         <v>962</v>
       </c>
-      <c r="O40" s="61" t="s">
+      <c r="O40" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="P40" s="61" t="s">
+      <c r="P40" s="58" t="s">
         <v>1551</v>
       </c>
-      <c r="Q40" s="61" t="s">
+      <c r="Q40" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="R40" s="61" t="s">
+      <c r="R40" s="58" t="s">
         <v>1553</v>
       </c>
       <c r="S40" s="19"/>
-      <c r="V40" s="59"/>
+      <c r="V40" s="65"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="20">
@@ -15898,7 +15898,7 @@
         <v>452</v>
       </c>
       <c r="S41" s="21"/>
-      <c r="V41" s="59"/>
+      <c r="V41" s="65"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
@@ -15944,7 +15944,7 @@
         <v>1554</v>
       </c>
       <c r="S42" s="31"/>
-      <c r="V42" s="59"/>
+      <c r="V42" s="65"/>
     </row>
     <row r="43" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
@@ -15968,49 +15968,49 @@
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
-      <c r="V43" s="59"/>
+      <c r="V43" s="65"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="58" t="s">
         <v>965</v>
       </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61" t="s">
+      <c r="E44" s="58"/>
+      <c r="F44" s="58" t="s">
         <v>967</v>
       </c>
-      <c r="G44" s="61" t="s">
+      <c r="G44" s="58" t="s">
         <v>781</v>
       </c>
-      <c r="H44" s="61" t="s">
+      <c r="H44" s="58" t="s">
         <v>944</v>
       </c>
-      <c r="I44" s="61" t="s">
+      <c r="I44" s="58" t="s">
         <v>969</v>
       </c>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61" t="s">
+      <c r="J44" s="58"/>
+      <c r="K44" s="58" t="s">
         <v>971</v>
       </c>
-      <c r="L44" s="61" t="s">
+      <c r="L44" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="M44" s="61" t="s">
+      <c r="M44" s="58" t="s">
         <v>974</v>
       </c>
-      <c r="N44" s="61" t="s">
+      <c r="N44" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="O44" s="61" t="s">
+      <c r="O44" s="58" t="s">
         <v>976</v>
       </c>
-      <c r="P44" s="61" t="s">
+      <c r="P44" s="58" t="s">
         <v>1171</v>
       </c>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
       <c r="S44" s="19"/>
-      <c r="V44" s="59"/>
+      <c r="V44" s="65"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="20">
@@ -16065,7 +16065,7 @@
 </v>
       </c>
       <c r="S45" s="21"/>
-      <c r="V45" s="59"/>
+      <c r="V45" s="65"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
@@ -16107,7 +16107,7 @@
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
       <c r="S46" s="31"/>
-      <c r="V46" s="59"/>
+      <c r="V46" s="65"/>
     </row>
     <row r="47" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
@@ -16127,11 +16127,11 @@
       <c r="P47" s="54"/>
       <c r="Q47" s="54"/>
       <c r="R47" s="54"/>
-      <c r="V47" s="59"/>
+      <c r="V47" s="65"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="61"/>
+      <c r="D48" s="58"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -16147,7 +16147,7 @@
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
       <c r="S48" s="19"/>
-      <c r="V48" s="59"/>
+      <c r="V48" s="65"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="20">
@@ -16174,7 +16174,7 @@
       <c r="Q49" s="41"/>
       <c r="R49" s="41"/>
       <c r="S49" s="21"/>
-      <c r="V49" s="59"/>
+      <c r="V49" s="65"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
@@ -16194,7 +16194,7 @@
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="31"/>
-      <c r="V50" s="59"/>
+      <c r="V50" s="65"/>
     </row>
     <row r="51" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
@@ -16214,53 +16214,53 @@
       <c r="P51" s="54"/>
       <c r="Q51" s="54"/>
       <c r="R51" s="54"/>
-      <c r="V51" s="59"/>
+      <c r="V51" s="65"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="58" t="s">
         <v>978</v>
       </c>
-      <c r="E52" s="61" t="s">
+      <c r="E52" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="F52" s="61" t="s">
+      <c r="F52" s="58" t="s">
         <v>980</v>
       </c>
-      <c r="G52" s="61" t="s">
+      <c r="G52" s="58" t="s">
         <v>982</v>
       </c>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61" t="s">
+      <c r="H52" s="58"/>
+      <c r="I52" s="58" t="s">
         <v>984</v>
       </c>
-      <c r="J52" s="61" t="s">
+      <c r="J52" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="K52" s="61" t="s">
+      <c r="K52" s="58" t="s">
         <v>1508</v>
       </c>
-      <c r="L52" s="61" t="s">
+      <c r="L52" s="58" t="s">
         <v>986</v>
       </c>
-      <c r="M52" s="61" t="s">
+      <c r="M52" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="N52" s="61" t="s">
+      <c r="N52" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61" t="s">
+      <c r="O52" s="58"/>
+      <c r="P52" s="58" t="s">
         <v>990</v>
       </c>
-      <c r="Q52" s="61" t="s">
+      <c r="Q52" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="R52" s="61" t="s">
+      <c r="R52" s="58" t="s">
         <v>39</v>
       </c>
       <c r="S52" s="19"/>
-      <c r="V52" s="59"/>
+      <c r="V52" s="65"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="20">
@@ -16313,7 +16313,7 @@
         <v>55</v>
       </c>
       <c r="S53" s="21"/>
-      <c r="V53" s="59"/>
+      <c r="V53" s="65"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
@@ -16359,7 +16359,7 @@
         <v>992</v>
       </c>
       <c r="S54" s="31"/>
-      <c r="V54" s="59"/>
+      <c r="V54" s="65"/>
     </row>
     <row r="55" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
@@ -16385,51 +16385,51 @@
       <c r="R55" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="V55" s="59"/>
+      <c r="V55" s="65"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="58" t="s">
         <v>945</v>
       </c>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61" t="s">
+      <c r="E56" s="58"/>
+      <c r="F56" s="58" t="s">
         <v>993</v>
       </c>
-      <c r="G56" s="61" t="s">
+      <c r="G56" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="H56" s="61" t="s">
+      <c r="H56" s="58" t="s">
         <v>995</v>
       </c>
-      <c r="I56" s="61" t="s">
+      <c r="I56" s="58" t="s">
         <v>1558</v>
       </c>
-      <c r="J56" s="61" t="s">
+      <c r="J56" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="K56" s="61" t="s">
+      <c r="K56" s="58" t="s">
         <v>997</v>
       </c>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61" t="s">
+      <c r="L56" s="58"/>
+      <c r="M56" s="58" t="s">
         <v>999</v>
       </c>
-      <c r="N56" s="61" t="s">
+      <c r="N56" s="58" t="s">
         <v>1001</v>
       </c>
-      <c r="O56" s="61" t="s">
+      <c r="O56" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="P56" s="61" t="s">
+      <c r="P56" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61" t="s">
+      <c r="Q56" s="58"/>
+      <c r="R56" s="58" t="s">
         <v>1559</v>
       </c>
       <c r="S56" s="19"/>
-      <c r="V56" s="59"/>
+      <c r="V56" s="65"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="20">
@@ -16445,7 +16445,7 @@
       <c r="F57" s="45" t="s">
         <v>650</v>
       </c>
-      <c r="G57" s="63" t="s">
+      <c r="G57" s="60" t="s">
         <v>29</v>
       </c>
       <c r="H57" s="45" t="s">
@@ -16482,7 +16482,7 @@
         <v>601</v>
       </c>
       <c r="S57" s="21"/>
-      <c r="V57" s="59"/>
+      <c r="V57" s="65"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
@@ -16526,7 +16526,7 @@
         <v>1560</v>
       </c>
       <c r="S58" s="31"/>
-      <c r="V58" s="59"/>
+      <c r="V58" s="65"/>
     </row>
     <row r="59" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -16550,53 +16550,53 @@
       <c r="R59" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="V59" s="59"/>
+      <c r="V59" s="65"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="E60" s="61" t="s">
+      <c r="E60" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="F60" s="61" t="s">
+      <c r="F60" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="G60" s="61" t="s">
+      <c r="G60" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="H60" s="61" t="s">
+      <c r="H60" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61" t="s">
+      <c r="I60" s="58"/>
+      <c r="J60" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="K60" s="61" t="s">
+      <c r="K60" s="58" t="s">
         <v>1006</v>
       </c>
-      <c r="L60" s="61" t="s">
+      <c r="L60" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="M60" s="61" t="s">
+      <c r="M60" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61" t="s">
+      <c r="N60" s="58"/>
+      <c r="O60" s="58" t="s">
         <v>1009</v>
       </c>
-      <c r="P60" s="61" t="s">
+      <c r="P60" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="Q60" s="61" t="s">
+      <c r="Q60" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="R60" s="61" t="s">
+      <c r="R60" s="58" t="s">
         <v>1561</v>
       </c>
       <c r="S60" s="19"/>
-      <c r="V60" s="59"/>
+      <c r="V60" s="65"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="20">
@@ -16612,7 +16612,7 @@
       <c r="F61" s="45" t="s">
         <v>418</v>
       </c>
-      <c r="G61" s="63" t="s">
+      <c r="G61" s="60" t="s">
         <v>68</v>
       </c>
       <c r="H61" s="55" t="s">
@@ -16649,7 +16649,7 @@
         <v>415</v>
       </c>
       <c r="S61" s="21"/>
-      <c r="V61" s="59"/>
+      <c r="V61" s="65"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
@@ -16695,7 +16695,7 @@
         <v>1562</v>
       </c>
       <c r="S62" s="31"/>
-      <c r="V62" s="59"/>
+      <c r="V62" s="65"/>
     </row>
     <row r="63" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -16715,18 +16715,18 @@
       <c r="P63" s="54"/>
       <c r="Q63" s="54"/>
       <c r="R63" s="54"/>
-      <c r="V63" s="59"/>
+      <c r="V63" s="65"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
-      <c r="D64" s="61" t="s">
+      <c r="D64" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="E64" s="61" t="s">
+      <c r="E64" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
@@ -16739,7 +16739,7 @@
       <c r="Q64" s="18"/>
       <c r="R64" s="18"/>
       <c r="S64" s="19"/>
-      <c r="V64" s="59"/>
+      <c r="V64" s="65"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="20">
@@ -16755,7 +16755,7 @@
       <c r="F65" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="63" t="str">
+      <c r="G65" s="60" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -16772,7 +16772,7 @@
       <c r="Q65" s="41"/>
       <c r="R65" s="41"/>
       <c r="S65" s="21"/>
-      <c r="V65" s="59"/>
+      <c r="V65" s="65"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
@@ -16796,7 +16796,7 @@
       <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
       <c r="S66" s="31"/>
-      <c r="V66" s="59"/>
+      <c r="V66" s="65"/>
     </row>
     <row r="67" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -16816,11 +16816,11 @@
       <c r="P67" s="54"/>
       <c r="Q67" s="54"/>
       <c r="R67" s="54"/>
-      <c r="V67" s="59"/>
+      <c r="V67" s="65"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
-      <c r="D68" s="61"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -16836,7 +16836,7 @@
       <c r="Q68" s="18"/>
       <c r="R68" s="18"/>
       <c r="S68" s="19"/>
-      <c r="V68" s="59"/>
+      <c r="V68" s="65"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="20">
@@ -16863,7 +16863,7 @@
       <c r="Q69" s="41"/>
       <c r="R69" s="41"/>
       <c r="S69" s="21"/>
-      <c r="V69" s="59"/>
+      <c r="V69" s="65"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="22"/>
@@ -16883,7 +16883,7 @@
       <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
       <c r="S70" s="31"/>
-      <c r="V70" s="59"/>
+      <c r="V70" s="65"/>
     </row>
     <row r="71" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -16905,53 +16905,53 @@
       <c r="R71" s="54" t="s">
         <v>432</v>
       </c>
-      <c r="V71" s="59"/>
+      <c r="V71" s="65"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="D72" s="61" t="s">
+      <c r="D72" s="58" t="s">
         <v>1012</v>
       </c>
-      <c r="E72" s="61" t="s">
+      <c r="E72" s="58" t="s">
         <v>1558</v>
       </c>
-      <c r="F72" s="61" t="s">
+      <c r="F72" s="58" t="s">
         <v>1014</v>
       </c>
-      <c r="G72" s="61" t="s">
+      <c r="G72" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="H72" s="61" t="s">
+      <c r="H72" s="58" t="s">
         <v>1016</v>
       </c>
-      <c r="I72" s="61" t="s">
+      <c r="I72" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61" t="s">
+      <c r="J72" s="58"/>
+      <c r="K72" s="58" t="s">
         <v>1018</v>
       </c>
-      <c r="L72" s="61" t="s">
+      <c r="L72" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="M72" s="61" t="s">
+      <c r="M72" s="58" t="s">
         <v>1020</v>
       </c>
-      <c r="N72" s="61" t="s">
+      <c r="N72" s="58" t="s">
         <v>976</v>
       </c>
-      <c r="O72" s="61" t="s">
+      <c r="O72" s="58" t="s">
         <v>1021</v>
       </c>
-      <c r="P72" s="61" t="s">
+      <c r="P72" s="58" t="s">
         <v>1023</v>
       </c>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="61" t="s">
+      <c r="Q72" s="58"/>
+      <c r="R72" s="58" t="s">
         <v>1563</v>
       </c>
       <c r="S72" s="19"/>
-      <c r="V72" s="59"/>
+      <c r="V72" s="65"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="20">
@@ -17004,7 +17004,7 @@
         <v>439</v>
       </c>
       <c r="S73" s="21"/>
-      <c r="V73" s="59"/>
+      <c r="V73" s="65"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
@@ -17050,7 +17050,7 @@
         <v>1564</v>
       </c>
       <c r="S74" s="31"/>
-      <c r="V74" s="59"/>
+      <c r="V74" s="65"/>
     </row>
     <row r="75" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -17072,53 +17072,53 @@
       <c r="P75" s="54"/>
       <c r="Q75" s="54"/>
       <c r="R75" s="54"/>
-      <c r="V75" s="59"/>
+      <c r="V75" s="65"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
-      <c r="D76" s="61" t="s">
+      <c r="D76" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="58" t="s">
         <v>1025</v>
       </c>
-      <c r="F76" s="61" t="s">
+      <c r="F76" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="G76" s="61" t="s">
+      <c r="G76" s="58" t="s">
         <v>1026</v>
       </c>
-      <c r="H76" s="61" t="s">
+      <c r="H76" s="58" t="s">
         <v>832</v>
       </c>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61" t="s">
+      <c r="I76" s="58"/>
+      <c r="J76" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="K76" s="61" t="s">
+      <c r="K76" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="L76" s="61" t="s">
+      <c r="L76" s="58" t="s">
         <v>1029</v>
       </c>
-      <c r="M76" s="61" t="s">
+      <c r="M76" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="N76" s="61" t="s">
+      <c r="N76" s="58" t="s">
         <v>1032</v>
       </c>
-      <c r="O76" s="61" t="s">
+      <c r="O76" s="58" t="s">
         <v>1034</v>
       </c>
-      <c r="P76" s="61"/>
-      <c r="Q76" s="61" t="s">
+      <c r="P76" s="58"/>
+      <c r="Q76" s="58" t="s">
         <v>962</v>
       </c>
-      <c r="R76" s="61" t="s">
+      <c r="R76" s="58" t="s">
         <v>227</v>
       </c>
       <c r="S76" s="19"/>
-      <c r="V76" s="59"/>
+      <c r="V76" s="65"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="20">
@@ -17134,7 +17134,7 @@
       <c r="F77" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G77" s="63" t="s">
+      <c r="G77" s="60" t="s">
         <v>494</v>
       </c>
       <c r="H77" s="55" t="s">
@@ -17171,7 +17171,7 @@
         <v>31</v>
       </c>
       <c r="S77" s="21"/>
-      <c r="V77" s="59"/>
+      <c r="V77" s="65"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
@@ -17217,7 +17217,7 @@
         <v>1003</v>
       </c>
       <c r="S78" s="31"/>
-      <c r="V78" s="59"/>
+      <c r="V78" s="65"/>
     </row>
     <row r="79" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -17239,47 +17239,47 @@
       <c r="P79" s="54"/>
       <c r="Q79" s="54"/>
       <c r="R79" s="54"/>
-      <c r="V79" s="59"/>
+      <c r="V79" s="65"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
-      <c r="D80" s="61" t="s">
+      <c r="D80" s="58" t="s">
         <v>1035</v>
       </c>
-      <c r="E80" s="61" t="s">
+      <c r="E80" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="F80" s="61" t="s">
+      <c r="F80" s="58" t="s">
         <v>1565</v>
       </c>
-      <c r="G80" s="61" t="s">
+      <c r="G80" s="58" t="s">
         <v>1038</v>
       </c>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61" t="s">
+      <c r="H80" s="58"/>
+      <c r="I80" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="J80" s="61" t="s">
+      <c r="J80" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="K80" s="61" t="s">
+      <c r="K80" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="L80" s="61" t="s">
+      <c r="L80" s="58" t="s">
         <v>1040</v>
       </c>
-      <c r="M80" s="61" t="s">
+      <c r="M80" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="N80" s="61" t="s">
+      <c r="N80" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="O80" s="61"/>
-      <c r="P80" s="61"/>
+      <c r="O80" s="58"/>
+      <c r="P80" s="58"/>
       <c r="Q80" s="18"/>
       <c r="R80" s="18"/>
       <c r="S80" s="19"/>
-      <c r="V80" s="59"/>
+      <c r="V80" s="65"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="20">
@@ -17330,7 +17330,7 @@
       <c r="Q81" s="41"/>
       <c r="R81" s="41"/>
       <c r="S81" s="21"/>
-      <c r="V81" s="59"/>
+      <c r="V81" s="65"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
@@ -17370,7 +17370,7 @@
       <c r="Q82" s="24"/>
       <c r="R82" s="24"/>
       <c r="S82" s="31"/>
-      <c r="V82" s="60"/>
+      <c r="V82" s="66"/>
     </row>
     <row r="83" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -17394,7 +17394,7 @@
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
-      <c r="D84" s="61"/>
+      <c r="D84" s="58"/>
       <c r="E84" s="18"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
@@ -17485,45 +17485,45 @@
     </row>
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
-      <c r="D88" s="61" t="s">
+      <c r="D88" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="E88" s="61" t="s">
+      <c r="E88" s="58" t="s">
         <v>1042</v>
       </c>
-      <c r="F88" s="61" t="s">
+      <c r="F88" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="G88" s="61" t="s">
+      <c r="G88" s="58" t="s">
         <v>1044</v>
       </c>
-      <c r="H88" s="61" t="s">
+      <c r="H88" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="I88" s="61" t="s">
+      <c r="I88" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="J88" s="61" t="s">
+      <c r="J88" s="58" t="s">
         <v>1047</v>
       </c>
-      <c r="K88" s="61"/>
-      <c r="L88" s="61" t="s">
+      <c r="K88" s="58"/>
+      <c r="L88" s="58" t="s">
         <v>1567</v>
       </c>
-      <c r="M88" s="61" t="s">
+      <c r="M88" s="58" t="s">
         <v>1050</v>
       </c>
-      <c r="N88" s="61" t="s">
+      <c r="N88" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="O88" s="61" t="s">
+      <c r="O88" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="P88" s="61"/>
-      <c r="Q88" s="61" t="s">
+      <c r="P88" s="58"/>
+      <c r="Q88" s="58" t="s">
         <v>1052</v>
       </c>
-      <c r="R88" s="61" t="s">
+      <c r="R88" s="58" t="s">
         <v>313</v>
       </c>
       <c r="S88" s="19"/>
@@ -17652,36 +17652,36 @@
     </row>
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
-      <c r="D92" s="61" t="s">
+      <c r="D92" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="E92" s="61" t="s">
+      <c r="E92" s="58" t="s">
         <v>775</v>
       </c>
-      <c r="F92" s="61" t="s">
+      <c r="F92" s="58" t="s">
         <v>1558</v>
       </c>
-      <c r="G92" s="61" t="s">
+      <c r="G92" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="H92" s="61" t="s">
+      <c r="H92" s="58" t="s">
         <v>1055</v>
       </c>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61" t="s">
+      <c r="I92" s="58"/>
+      <c r="J92" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="K92" s="61" t="s">
+      <c r="K92" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="L92" s="61" t="s">
+      <c r="L92" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="M92" s="61" t="s">
+      <c r="M92" s="58" t="s">
         <v>1057</v>
       </c>
-      <c r="N92" s="61"/>
-      <c r="O92" s="61"/>
+      <c r="N92" s="58"/>
+      <c r="O92" s="58"/>
       <c r="P92" s="18"/>
       <c r="Q92" s="18"/>
       <c r="R92" s="18"/>
@@ -17797,7 +17797,7 @@
     </row>
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="17"/>
-      <c r="D96" s="61"/>
+      <c r="D96" s="58"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
@@ -17884,45 +17884,45 @@
     </row>
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
-      <c r="D100" s="61" t="s">
+      <c r="D100" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="E100" s="61" t="s">
+      <c r="E100" s="58" t="s">
         <v>1059</v>
       </c>
-      <c r="F100" s="61" t="s">
+      <c r="F100" s="58" t="s">
         <v>1060</v>
       </c>
-      <c r="G100" s="61" t="s">
+      <c r="G100" s="58" t="s">
         <v>1057</v>
       </c>
-      <c r="H100" s="61" t="s">
+      <c r="H100" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="I100" s="61" t="s">
+      <c r="I100" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="J100" s="61"/>
-      <c r="K100" s="61" t="s">
+      <c r="J100" s="58"/>
+      <c r="K100" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="L100" s="61" t="s">
+      <c r="L100" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="M100" s="61" t="s">
+      <c r="M100" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="N100" s="61" t="s">
+      <c r="N100" s="58" t="s">
         <v>1064</v>
       </c>
-      <c r="O100" s="61" t="s">
+      <c r="O100" s="58" t="s">
         <v>1065</v>
       </c>
-      <c r="P100" s="61"/>
-      <c r="Q100" s="61" t="s">
+      <c r="P100" s="58"/>
+      <c r="Q100" s="58" t="s">
         <v>848</v>
       </c>
-      <c r="R100" s="61" t="s">
+      <c r="R100" s="58" t="s">
         <v>293</v>
       </c>
       <c r="S100" s="19"/>
@@ -18051,45 +18051,45 @@
     </row>
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
-      <c r="D104" s="61" t="s">
+      <c r="D104" s="58" t="s">
         <v>1057</v>
       </c>
-      <c r="E104" s="61" t="s">
+      <c r="E104" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="F104" s="61"/>
-      <c r="G104" s="61" t="s">
+      <c r="F104" s="58"/>
+      <c r="G104" s="58" t="s">
         <v>1569</v>
       </c>
-      <c r="H104" s="61" t="s">
+      <c r="H104" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="I104" s="61" t="s">
+      <c r="I104" s="58" t="s">
         <v>1064</v>
       </c>
-      <c r="J104" s="61" t="s">
+      <c r="J104" s="58" t="s">
         <v>832</v>
       </c>
-      <c r="K104" s="61" t="s">
+      <c r="K104" s="58" t="s">
         <v>1067</v>
       </c>
-      <c r="L104" s="61" t="s">
+      <c r="L104" s="58" t="s">
         <v>1069</v>
       </c>
-      <c r="M104" s="61"/>
-      <c r="N104" s="61" t="s">
+      <c r="M104" s="58"/>
+      <c r="N104" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="O104" s="61" t="s">
+      <c r="O104" s="58" t="s">
         <v>837</v>
       </c>
-      <c r="P104" s="61" t="s">
+      <c r="P104" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="Q104" s="61" t="s">
+      <c r="Q104" s="58" t="s">
         <v>1071</v>
       </c>
-      <c r="R104" s="61"/>
+      <c r="R104" s="58"/>
       <c r="S104" s="19"/>
       <c r="V104" s="7"/>
     </row>
@@ -18131,7 +18131,7 @@
       <c r="N105" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O105" s="64" t="s">
+      <c r="O105" s="61" t="s">
         <v>404</v>
       </c>
       <c r="P105" s="45" t="s">
@@ -18214,26 +18214,26 @@
     </row>
     <row r="108" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
-      <c r="D108" s="61" t="s">
+      <c r="D108" s="58" t="s">
         <v>985</v>
       </c>
-      <c r="E108" s="61" t="s">
+      <c r="E108" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="F108" s="61" t="s">
+      <c r="F108" s="58" t="s">
         <v>1571</v>
       </c>
-      <c r="G108" s="61" t="s">
+      <c r="G108" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H108" s="61" t="s">
+      <c r="H108" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="I108" s="61" t="s">
+      <c r="I108" s="58" t="s">
         <v>1072</v>
       </c>
-      <c r="J108" s="61"/>
-      <c r="K108" s="61"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="58"/>
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
       <c r="N108" s="18"/>
@@ -18339,7 +18339,7 @@
     </row>
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
-      <c r="D112" s="61"/>
+      <c r="D112" s="58"/>
       <c r="E112" s="18"/>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
@@ -18428,45 +18428,45 @@
     </row>
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
-      <c r="D116" s="61" t="s">
+      <c r="D116" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="E116" s="61" t="s">
+      <c r="E116" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="F116" s="61" t="s">
+      <c r="F116" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="G116" s="61" t="s">
+      <c r="G116" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="H116" s="61" t="s">
+      <c r="H116" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="I116" s="61" t="s">
+      <c r="I116" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="J116" s="61"/>
-      <c r="K116" s="61" t="s">
+      <c r="J116" s="58"/>
+      <c r="K116" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="L116" s="61" t="s">
+      <c r="L116" s="58" t="s">
         <v>1050</v>
       </c>
-      <c r="M116" s="61" t="s">
+      <c r="M116" s="58" t="s">
         <v>1075</v>
       </c>
-      <c r="N116" s="61" t="s">
+      <c r="N116" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="O116" s="61" t="s">
+      <c r="O116" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="P116" s="61" t="s">
+      <c r="P116" s="58" t="s">
         <v>1071</v>
       </c>
-      <c r="Q116" s="61"/>
-      <c r="R116" s="61" t="s">
+      <c r="Q116" s="58"/>
+      <c r="R116" s="58" t="s">
         <v>290</v>
       </c>
       <c r="S116" s="19"/>
@@ -18486,7 +18486,7 @@
       <c r="F117" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="63" t="s">
+      <c r="G117" s="60" t="s">
         <v>100</v>
       </c>
       <c r="H117" s="45" t="s">
@@ -18601,45 +18601,45 @@
     </row>
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="17"/>
-      <c r="D120" s="61" t="s">
+      <c r="D120" s="58" t="s">
         <v>1078</v>
       </c>
-      <c r="E120" s="61" t="s">
+      <c r="E120" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="F120" s="61" t="s">
+      <c r="F120" s="58" t="s">
         <v>1550</v>
       </c>
-      <c r="G120" s="61"/>
-      <c r="H120" s="61" t="s">
+      <c r="G120" s="58"/>
+      <c r="H120" s="58" t="s">
         <v>1080</v>
       </c>
-      <c r="I120" s="61" t="s">
+      <c r="I120" s="58" t="s">
         <v>1082</v>
       </c>
-      <c r="J120" s="61" t="s">
+      <c r="J120" s="58" t="s">
         <v>1084</v>
       </c>
-      <c r="K120" s="61" t="s">
+      <c r="K120" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="L120" s="61" t="s">
+      <c r="L120" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="M120" s="61" t="s">
+      <c r="M120" s="58" t="s">
         <v>946</v>
       </c>
-      <c r="N120" s="61"/>
-      <c r="O120" s="61" t="s">
+      <c r="N120" s="58"/>
+      <c r="O120" s="58" t="s">
         <v>1055</v>
       </c>
-      <c r="P120" s="61" t="s">
+      <c r="P120" s="58" t="s">
         <v>783</v>
       </c>
-      <c r="Q120" s="61" t="s">
+      <c r="Q120" s="58" t="s">
         <v>1087</v>
       </c>
-      <c r="R120" s="61" t="s">
+      <c r="R120" s="58" t="s">
         <v>1573</v>
       </c>
       <c r="S120" s="19"/>
@@ -18659,7 +18659,7 @@
       <c r="F121" s="55" t="s">
         <v>679</v>
       </c>
-      <c r="G121" s="63" t="s">
+      <c r="G121" s="60" t="s">
         <v>22</v>
       </c>
       <c r="H121" s="45" t="s">
@@ -18747,17 +18747,17 @@
     <row r="123" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B123" s="12"/>
       <c r="C123" s="34"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65" t="s">
+      <c r="D123" s="62"/>
+      <c r="E123" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="65"/>
-      <c r="J123" s="65"/>
-      <c r="K123" s="65"/>
-      <c r="L123" s="65"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="62"/>
+      <c r="I123" s="62"/>
+      <c r="J123" s="62"/>
+      <c r="K123" s="62"/>
+      <c r="L123" s="62"/>
       <c r="M123" s="14"/>
       <c r="N123" s="14"/>
       <c r="O123" s="14"/>
@@ -18768,27 +18768,27 @@
     </row>
     <row r="124" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="17"/>
-      <c r="D124" s="61"/>
-      <c r="E124" s="61" t="s">
+      <c r="D124" s="58"/>
+      <c r="E124" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="F124" s="61" t="s">
+      <c r="F124" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G124" s="61" t="s">
+      <c r="G124" s="58" t="s">
         <v>848</v>
       </c>
-      <c r="H124" s="61" t="s">
+      <c r="H124" s="58" t="s">
         <v>1088</v>
       </c>
-      <c r="I124" s="61" t="s">
+      <c r="I124" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="J124" s="61" t="s">
+      <c r="J124" s="58" t="s">
         <v>1091</v>
       </c>
-      <c r="K124" s="61"/>
-      <c r="L124" s="61"/>
+      <c r="K124" s="58"/>
+      <c r="L124" s="58"/>
       <c r="M124" s="18"/>
       <c r="N124" s="18"/>
       <c r="O124" s="18"/>
@@ -18812,7 +18812,7 @@
       <c r="F125" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G125" s="63" t="s">
+      <c r="G125" s="60" t="s">
         <v>345</v>
       </c>
       <c r="H125" s="45" t="s">
@@ -18876,7 +18876,7 @@
     <row r="127" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B127" s="12"/>
       <c r="C127" s="34"/>
-      <c r="D127" s="65"/>
+      <c r="D127" s="62"/>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="128" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="17"/>
-      <c r="D128" s="61"/>
+      <c r="D128" s="58"/>
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
       <c r="G128" s="18"/>
@@ -18963,66 +18963,66 @@
     <row r="131" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B131" s="12"/>
       <c r="C131" s="34"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="65" t="s">
+      <c r="D131" s="62"/>
+      <c r="E131" s="62" t="s">
         <v>765</v>
       </c>
-      <c r="F131" s="65"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="65"/>
-      <c r="J131" s="65"/>
-      <c r="K131" s="65"/>
-      <c r="L131" s="65"/>
-      <c r="M131" s="65"/>
-      <c r="N131" s="65"/>
-      <c r="O131" s="65"/>
-      <c r="P131" s="65"/>
-      <c r="Q131" s="65"/>
-      <c r="R131" s="65"/>
+      <c r="F131" s="62"/>
+      <c r="G131" s="62"/>
+      <c r="H131" s="62"/>
+      <c r="I131" s="62"/>
+      <c r="J131" s="62"/>
+      <c r="K131" s="62"/>
+      <c r="L131" s="62"/>
+      <c r="M131" s="62"/>
+      <c r="N131" s="62"/>
+      <c r="O131" s="62"/>
+      <c r="P131" s="62"/>
+      <c r="Q131" s="62"/>
+      <c r="R131" s="62"/>
       <c r="V131" s="36"/>
     </row>
     <row r="132" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="17"/>
-      <c r="D132" s="61" t="s">
+      <c r="D132" s="58" t="s">
         <v>1092</v>
       </c>
-      <c r="E132" s="61" t="s">
+      <c r="E132" s="58" t="s">
         <v>1575</v>
       </c>
-      <c r="F132" s="61" t="s">
+      <c r="F132" s="58" t="s">
         <v>1093</v>
       </c>
-      <c r="G132" s="61" t="s">
+      <c r="G132" s="58" t="s">
         <v>856</v>
       </c>
-      <c r="H132" s="61"/>
-      <c r="I132" s="61" t="s">
+      <c r="H132" s="58"/>
+      <c r="I132" s="58" t="s">
         <v>949</v>
       </c>
-      <c r="J132" s="61" t="s">
+      <c r="J132" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="K132" s="61" t="s">
+      <c r="K132" s="58" t="s">
         <v>1009</v>
       </c>
-      <c r="L132" s="61" t="s">
+      <c r="L132" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="M132" s="61" t="s">
+      <c r="M132" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="N132" s="61" t="s">
+      <c r="N132" s="58" t="s">
         <v>1098</v>
       </c>
-      <c r="O132" s="61"/>
-      <c r="P132" s="61" t="s">
+      <c r="O132" s="58"/>
+      <c r="P132" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="Q132" s="61" t="s">
+      <c r="Q132" s="58" t="s">
         <v>1100</v>
       </c>
-      <c r="R132" s="61" t="s">
+      <c r="R132" s="58" t="s">
         <v>289</v>
       </c>
       <c r="S132" s="19"/>
@@ -19042,7 +19042,7 @@
       <c r="F133" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="G133" s="63" t="s">
+      <c r="G133" s="60" t="s">
         <v>633</v>
       </c>
       <c r="H133" s="45" t="s">
@@ -19130,18 +19130,18 @@
     <row r="135" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B135" s="12"/>
       <c r="C135" s="34"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="65"/>
-      <c r="F135" s="65"/>
-      <c r="G135" s="65"/>
-      <c r="H135" s="65" t="s">
+      <c r="D135" s="62"/>
+      <c r="E135" s="62"/>
+      <c r="F135" s="62"/>
+      <c r="G135" s="62"/>
+      <c r="H135" s="62" t="s">
         <v>653</v>
       </c>
-      <c r="I135" s="65"/>
-      <c r="J135" s="65"/>
-      <c r="K135" s="65"/>
-      <c r="L135" s="65"/>
-      <c r="M135" s="65"/>
+      <c r="I135" s="62"/>
+      <c r="J135" s="62"/>
+      <c r="K135" s="62"/>
+      <c r="L135" s="62"/>
+      <c r="M135" s="62"/>
       <c r="N135" s="14"/>
       <c r="O135" s="14"/>
       <c r="P135" s="14"/>
@@ -19151,30 +19151,30 @@
     </row>
     <row r="136" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="17"/>
-      <c r="D136" s="61" t="s">
+      <c r="D136" s="58" t="s">
         <v>1102</v>
       </c>
-      <c r="E136" s="61"/>
-      <c r="F136" s="61" t="s">
+      <c r="E136" s="58"/>
+      <c r="F136" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="G136" s="61" t="s">
+      <c r="G136" s="58" t="s">
         <v>1104</v>
       </c>
-      <c r="H136" s="61" t="s">
+      <c r="H136" s="58" t="s">
         <v>1577</v>
       </c>
-      <c r="I136" s="61" t="s">
+      <c r="I136" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="J136" s="61" t="s">
+      <c r="J136" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="K136" s="61" t="s">
+      <c r="K136" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="L136" s="61"/>
-      <c r="M136" s="61"/>
+      <c r="L136" s="58"/>
+      <c r="M136" s="58"/>
       <c r="N136" s="18"/>
       <c r="O136" s="18"/>
       <c r="P136" s="18"/>
@@ -19265,7 +19265,7 @@
     <row r="139" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B139" s="12"/>
       <c r="C139" s="34"/>
-      <c r="D139" s="65"/>
+      <c r="D139" s="62"/>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
@@ -19284,7 +19284,7 @@
     </row>
     <row r="140" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B140" s="17"/>
-      <c r="D140" s="61"/>
+      <c r="D140" s="58"/>
       <c r="E140" s="18"/>
       <c r="F140" s="18"/>
       <c r="G140" s="18"/>
@@ -19352,70 +19352,70 @@
     <row r="143" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B143" s="12"/>
       <c r="C143" s="34"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="65" t="s">
+      <c r="D143" s="62"/>
+      <c r="E143" s="62" t="s">
         <v>565</v>
       </c>
-      <c r="F143" s="65"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="65"/>
-      <c r="I143" s="65" t="s">
+      <c r="F143" s="62"/>
+      <c r="G143" s="62"/>
+      <c r="H143" s="62"/>
+      <c r="I143" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="J143" s="65" t="s">
+      <c r="J143" s="62" t="s">
         <v>504</v>
       </c>
-      <c r="K143" s="65"/>
-      <c r="L143" s="65"/>
-      <c r="M143" s="65"/>
-      <c r="N143" s="65"/>
-      <c r="O143" s="65"/>
-      <c r="P143" s="65"/>
-      <c r="Q143" s="65"/>
-      <c r="R143" s="65"/>
+      <c r="K143" s="62"/>
+      <c r="L143" s="62"/>
+      <c r="M143" s="62"/>
+      <c r="N143" s="62"/>
+      <c r="O143" s="62"/>
+      <c r="P143" s="62"/>
+      <c r="Q143" s="62"/>
+      <c r="R143" s="62"/>
       <c r="V143" s="36"/>
     </row>
     <row r="144" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="17"/>
-      <c r="D144" s="61" t="s">
+      <c r="D144" s="58" t="s">
         <v>1106</v>
       </c>
-      <c r="E144" s="61" t="s">
+      <c r="E144" s="58" t="s">
         <v>1558</v>
       </c>
-      <c r="F144" s="61" t="s">
+      <c r="F144" s="58" t="s">
         <v>1060</v>
       </c>
-      <c r="G144" s="61" t="s">
+      <c r="G144" s="58" t="s">
         <v>1057</v>
       </c>
-      <c r="H144" s="61"/>
-      <c r="I144" s="61" t="s">
+      <c r="H144" s="58"/>
+      <c r="I144" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="J144" s="61" t="s">
+      <c r="J144" s="58" t="s">
         <v>1171</v>
       </c>
-      <c r="K144" s="61" t="s">
+      <c r="K144" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="L144" s="61" t="s">
+      <c r="L144" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="M144" s="61" t="s">
+      <c r="M144" s="58" t="s">
         <v>1108</v>
       </c>
-      <c r="N144" s="61" t="s">
+      <c r="N144" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="O144" s="61" t="s">
+      <c r="O144" s="58" t="s">
         <v>1110</v>
       </c>
-      <c r="P144" s="61"/>
-      <c r="Q144" s="61" t="s">
+      <c r="P144" s="58"/>
+      <c r="Q144" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="R144" s="61" t="s">
+      <c r="R144" s="58" t="s">
         <v>223</v>
       </c>
       <c r="S144" s="19"/>
@@ -19435,7 +19435,7 @@
       <c r="F145" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="G145" s="63" t="s">
+      <c r="G145" s="60" t="s">
         <v>716</v>
       </c>
       <c r="H145" s="45" t="s">
@@ -19523,18 +19523,18 @@
     <row r="147" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B147" s="12"/>
       <c r="C147" s="34"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="65"/>
-      <c r="F147" s="65"/>
-      <c r="G147" s="65"/>
-      <c r="H147" s="65"/>
-      <c r="I147" s="65"/>
-      <c r="J147" s="65"/>
-      <c r="K147" s="65"/>
-      <c r="L147" s="65"/>
-      <c r="M147" s="65"/>
-      <c r="N147" s="65"/>
-      <c r="O147" s="65"/>
+      <c r="D147" s="62"/>
+      <c r="E147" s="62"/>
+      <c r="F147" s="62"/>
+      <c r="G147" s="62"/>
+      <c r="H147" s="62"/>
+      <c r="I147" s="62"/>
+      <c r="J147" s="62"/>
+      <c r="K147" s="62"/>
+      <c r="L147" s="62"/>
+      <c r="M147" s="62"/>
+      <c r="N147" s="62"/>
+      <c r="O147" s="62"/>
       <c r="P147" s="14"/>
       <c r="Q147" s="14"/>
       <c r="R147" s="14"/>
@@ -19542,36 +19542,36 @@
     </row>
     <row r="148" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B148" s="17"/>
-      <c r="D148" s="61" t="s">
+      <c r="D148" s="58" t="s">
         <v>1112</v>
       </c>
-      <c r="E148" s="61" t="s">
+      <c r="E148" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="F148" s="61"/>
-      <c r="G148" s="61" t="s">
+      <c r="F148" s="58"/>
+      <c r="G148" s="58" t="s">
         <v>1114</v>
       </c>
-      <c r="H148" s="61" t="s">
+      <c r="H148" s="58" t="s">
         <v>1072</v>
       </c>
-      <c r="I148" s="61" t="s">
+      <c r="I148" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="J148" s="61" t="s">
+      <c r="J148" s="58" t="s">
         <v>1116</v>
       </c>
-      <c r="K148" s="61" t="s">
+      <c r="K148" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="L148" s="61" t="s">
+      <c r="L148" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="M148" s="61" t="s">
+      <c r="M148" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="N148" s="61"/>
-      <c r="O148" s="61"/>
+      <c r="N148" s="58"/>
+      <c r="O148" s="58"/>
       <c r="P148" s="18"/>
       <c r="Q148" s="18"/>
       <c r="R148" s="18"/>
@@ -19668,7 +19668,7 @@
     <row r="151" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B151" s="12"/>
       <c r="C151" s="34"/>
-      <c r="D151" s="65"/>
+      <c r="D151" s="62"/>
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
@@ -19687,7 +19687,7 @@
     </row>
     <row r="152" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="17"/>
-      <c r="D152" s="61"/>
+      <c r="D152" s="58"/>
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18"/>
@@ -19755,66 +19755,66 @@
     <row r="155" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B155" s="12"/>
       <c r="C155" s="34"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="65"/>
-      <c r="F155" s="65"/>
-      <c r="G155" s="65" t="s">
+      <c r="D155" s="62"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="62"/>
+      <c r="G155" s="62" t="s">
         <v>647</v>
       </c>
-      <c r="H155" s="65"/>
-      <c r="I155" s="65"/>
-      <c r="J155" s="65"/>
-      <c r="K155" s="65"/>
-      <c r="L155" s="65"/>
-      <c r="M155" s="65"/>
-      <c r="N155" s="65"/>
-      <c r="O155" s="65"/>
-      <c r="P155" s="65"/>
-      <c r="Q155" s="65"/>
-      <c r="R155" s="65"/>
+      <c r="H155" s="62"/>
+      <c r="I155" s="62"/>
+      <c r="J155" s="62"/>
+      <c r="K155" s="62"/>
+      <c r="L155" s="62"/>
+      <c r="M155" s="62"/>
+      <c r="N155" s="62"/>
+      <c r="O155" s="62"/>
+      <c r="P155" s="62"/>
+      <c r="Q155" s="62"/>
+      <c r="R155" s="62"/>
       <c r="V155" s="36"/>
     </row>
     <row r="156" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="17"/>
-      <c r="D156" s="61" t="s">
+      <c r="D156" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="E156" s="61" t="s">
+      <c r="E156" s="58" t="s">
         <v>1119</v>
       </c>
-      <c r="F156" s="61" t="s">
+      <c r="F156" s="58" t="s">
         <v>1120</v>
       </c>
-      <c r="G156" s="61" t="s">
+      <c r="G156" s="58" t="s">
         <v>1580</v>
       </c>
-      <c r="H156" s="61"/>
-      <c r="I156" s="61" t="s">
+      <c r="H156" s="58"/>
+      <c r="I156" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="J156" s="61" t="s">
+      <c r="J156" s="58" t="s">
         <v>1121</v>
       </c>
-      <c r="K156" s="61" t="s">
+      <c r="K156" s="58" t="s">
         <v>1123</v>
       </c>
-      <c r="L156" s="61" t="s">
+      <c r="L156" s="58" t="s">
         <v>1125</v>
       </c>
-      <c r="M156" s="61" t="s">
+      <c r="M156" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="N156" s="61" t="s">
+      <c r="N156" s="58" t="s">
         <v>1127</v>
       </c>
-      <c r="O156" s="61"/>
-      <c r="P156" s="61" t="s">
+      <c r="O156" s="58"/>
+      <c r="P156" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="Q156" s="61" t="s">
+      <c r="Q156" s="58" t="s">
         <v>1131</v>
       </c>
-      <c r="R156" s="61" t="s">
+      <c r="R156" s="58" t="s">
         <v>288</v>
       </c>
       <c r="S156" s="19"/>
@@ -19922,62 +19922,62 @@
     <row r="159" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B159" s="12"/>
       <c r="C159" s="34"/>
-      <c r="D159" s="65"/>
-      <c r="E159" s="65"/>
-      <c r="F159" s="65"/>
-      <c r="G159" s="65"/>
-      <c r="H159" s="65"/>
-      <c r="I159" s="65"/>
-      <c r="J159" s="65"/>
-      <c r="K159" s="65"/>
-      <c r="L159" s="65"/>
-      <c r="M159" s="65"/>
-      <c r="N159" s="65"/>
-      <c r="O159" s="65"/>
-      <c r="P159" s="65"/>
-      <c r="Q159" s="65"/>
-      <c r="R159" s="65"/>
+      <c r="D159" s="62"/>
+      <c r="E159" s="62"/>
+      <c r="F159" s="62"/>
+      <c r="G159" s="62"/>
+      <c r="H159" s="62"/>
+      <c r="I159" s="62"/>
+      <c r="J159" s="62"/>
+      <c r="K159" s="62"/>
+      <c r="L159" s="62"/>
+      <c r="M159" s="62"/>
+      <c r="N159" s="62"/>
+      <c r="O159" s="62"/>
+      <c r="P159" s="62"/>
+      <c r="Q159" s="62"/>
+      <c r="R159" s="62"/>
       <c r="V159" s="36"/>
     </row>
     <row r="160" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B160" s="17"/>
-      <c r="D160" s="61" t="s">
+      <c r="D160" s="58" t="s">
         <v>1133</v>
       </c>
-      <c r="E160" s="61"/>
-      <c r="F160" s="61" t="s">
+      <c r="E160" s="58"/>
+      <c r="F160" s="58" t="s">
         <v>1134</v>
       </c>
-      <c r="G160" s="61" t="s">
+      <c r="G160" s="58" t="s">
         <v>1136</v>
       </c>
-      <c r="H160" s="61" t="s">
+      <c r="H160" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="I160" s="61" t="s">
+      <c r="I160" s="58" t="s">
         <v>1139</v>
       </c>
-      <c r="J160" s="61" t="s">
+      <c r="J160" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="K160" s="61" t="s">
+      <c r="K160" s="58" t="s">
         <v>1140</v>
       </c>
-      <c r="L160" s="61"/>
-      <c r="M160" s="61" t="s">
+      <c r="L160" s="58"/>
+      <c r="M160" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="N160" s="61" t="s">
+      <c r="N160" s="58" t="s">
         <v>1142</v>
       </c>
-      <c r="O160" s="61" t="s">
+      <c r="O160" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="P160" s="61" t="s">
+      <c r="P160" s="58" t="s">
         <v>1057</v>
       </c>
-      <c r="Q160" s="61"/>
-      <c r="R160" s="61" t="s">
+      <c r="Q160" s="58"/>
+      <c r="R160" s="58" t="s">
         <v>298</v>
       </c>
       <c r="S160" s="19"/>
@@ -20083,68 +20083,68 @@
     <row r="163" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B163" s="12"/>
       <c r="C163" s="34"/>
-      <c r="D163" s="65"/>
-      <c r="E163" s="65"/>
-      <c r="F163" s="65" t="s">
+      <c r="D163" s="62"/>
+      <c r="E163" s="62"/>
+      <c r="F163" s="62" t="s">
         <v>383</v>
       </c>
-      <c r="G163" s="65"/>
-      <c r="H163" s="65"/>
-      <c r="I163" s="65"/>
-      <c r="J163" s="65"/>
-      <c r="K163" s="65"/>
-      <c r="L163" s="65"/>
-      <c r="M163" s="65"/>
-      <c r="N163" s="65"/>
-      <c r="O163" s="65"/>
-      <c r="P163" s="65"/>
-      <c r="Q163" s="65"/>
-      <c r="R163" s="65" t="s">
+      <c r="G163" s="62"/>
+      <c r="H163" s="62"/>
+      <c r="I163" s="62"/>
+      <c r="J163" s="62"/>
+      <c r="K163" s="62"/>
+      <c r="L163" s="62"/>
+      <c r="M163" s="62"/>
+      <c r="N163" s="62"/>
+      <c r="O163" s="62"/>
+      <c r="P163" s="62"/>
+      <c r="Q163" s="62"/>
+      <c r="R163" s="62" t="s">
         <v>212</v>
       </c>
       <c r="V163" s="36"/>
     </row>
     <row r="164" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B164" s="17"/>
-      <c r="D164" s="61" t="s">
+      <c r="D164" s="58" t="s">
         <v>1123</v>
       </c>
-      <c r="E164" s="61" t="s">
+      <c r="E164" s="58" t="s">
         <v>1139</v>
       </c>
-      <c r="F164" s="61" t="s">
+      <c r="F164" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="G164" s="61" t="s">
+      <c r="G164" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="H164" s="61" t="s">
+      <c r="H164" s="58" t="s">
         <v>1144</v>
       </c>
-      <c r="I164" s="61"/>
-      <c r="J164" s="61" t="s">
+      <c r="I164" s="58"/>
+      <c r="J164" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="K164" s="61" t="s">
+      <c r="K164" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="L164" s="61" t="s">
+      <c r="L164" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="M164" s="61" t="s">
+      <c r="M164" s="58" t="s">
         <v>1147</v>
       </c>
-      <c r="N164" s="61"/>
-      <c r="O164" s="61" t="s">
+      <c r="N164" s="58"/>
+      <c r="O164" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="P164" s="61" t="s">
+      <c r="P164" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="Q164" s="61" t="s">
+      <c r="Q164" s="58" t="s">
         <v>1127</v>
       </c>
-      <c r="R164" s="61" t="s">
+      <c r="R164" s="58" t="s">
         <v>321</v>
       </c>
       <c r="S164" s="19"/>
@@ -20252,66 +20252,66 @@
     <row r="167" spans="2:22">
       <c r="B167" s="12"/>
       <c r="C167" s="34"/>
-      <c r="D167" s="65"/>
-      <c r="E167" s="65"/>
-      <c r="F167" s="65"/>
-      <c r="G167" s="65"/>
-      <c r="H167" s="65"/>
-      <c r="I167" s="65"/>
-      <c r="J167" s="65"/>
-      <c r="K167" s="65"/>
-      <c r="L167" s="65"/>
-      <c r="M167" s="65"/>
-      <c r="N167" s="65"/>
-      <c r="O167" s="65" t="s">
+      <c r="D167" s="62"/>
+      <c r="E167" s="62"/>
+      <c r="F167" s="62"/>
+      <c r="G167" s="62"/>
+      <c r="H167" s="62"/>
+      <c r="I167" s="62"/>
+      <c r="J167" s="62"/>
+      <c r="K167" s="62"/>
+      <c r="L167" s="62"/>
+      <c r="M167" s="62"/>
+      <c r="N167" s="62"/>
+      <c r="O167" s="62" t="s">
         <v>457</v>
       </c>
-      <c r="P167" s="65"/>
-      <c r="Q167" s="65"/>
-      <c r="R167" s="65"/>
+      <c r="P167" s="62"/>
+      <c r="Q167" s="62"/>
+      <c r="R167" s="62"/>
     </row>
     <row r="168" spans="2:22" ht="39.75">
       <c r="B168" s="17"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="61" t="s">
+      <c r="D168" s="58" t="s">
         <v>1149</v>
       </c>
-      <c r="E168" s="61" t="s">
+      <c r="E168" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="F168" s="61"/>
-      <c r="G168" s="61" t="s">
+      <c r="F168" s="58"/>
+      <c r="G168" s="58" t="s">
         <v>1151</v>
       </c>
-      <c r="H168" s="61" t="s">
+      <c r="H168" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="I168" s="61" t="s">
+      <c r="I168" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="J168" s="61" t="s">
+      <c r="J168" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="K168" s="61"/>
-      <c r="L168" s="61" t="s">
+      <c r="K168" s="58"/>
+      <c r="L168" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="M168" s="61" t="s">
+      <c r="M168" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="N168" s="61" t="s">
+      <c r="N168" s="58" t="s">
         <v>1152</v>
       </c>
-      <c r="O168" s="61" t="s">
+      <c r="O168" s="58" t="s">
         <v>1583</v>
       </c>
-      <c r="P168" s="61" t="s">
+      <c r="P168" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="Q168" s="61" t="s">
+      <c r="Q168" s="58" t="s">
         <v>775</v>
       </c>
-      <c r="R168" s="61"/>
+      <c r="R168" s="58"/>
     </row>
     <row r="169" spans="2:22" ht="58.5">
       <c r="B169" s="20">
@@ -20411,60 +20411,60 @@
     <row r="171" spans="2:22">
       <c r="B171" s="12"/>
       <c r="C171" s="34"/>
-      <c r="D171" s="65"/>
-      <c r="E171" s="65"/>
-      <c r="F171" s="65"/>
-      <c r="G171" s="65"/>
-      <c r="H171" s="65"/>
-      <c r="I171" s="65"/>
-      <c r="J171" s="65"/>
-      <c r="K171" s="65"/>
-      <c r="L171" s="65" t="s">
+      <c r="D171" s="62"/>
+      <c r="E171" s="62"/>
+      <c r="F171" s="62"/>
+      <c r="G171" s="62"/>
+      <c r="H171" s="62"/>
+      <c r="I171" s="62"/>
+      <c r="J171" s="62"/>
+      <c r="K171" s="62"/>
+      <c r="L171" s="62" t="s">
         <v>382</v>
       </c>
-      <c r="M171" s="65"/>
-      <c r="N171" s="65"/>
-      <c r="O171" s="65"/>
-      <c r="P171" s="65"/>
+      <c r="M171" s="62"/>
+      <c r="N171" s="62"/>
+      <c r="O171" s="62"/>
+      <c r="P171" s="62"/>
       <c r="Q171" s="14"/>
       <c r="R171" s="14"/>
     </row>
     <row r="172" spans="2:22" ht="39.75">
       <c r="B172" s="17"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="61" t="s">
+      <c r="D172" s="58" t="s">
         <v>1154</v>
       </c>
-      <c r="E172" s="61" t="s">
+      <c r="E172" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="F172" s="61" t="s">
+      <c r="F172" s="58" t="s">
         <v>1116</v>
       </c>
-      <c r="G172" s="61" t="s">
+      <c r="G172" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H172" s="61"/>
-      <c r="I172" s="61" t="s">
+      <c r="H172" s="58"/>
+      <c r="I172" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="J172" s="61" t="s">
+      <c r="J172" s="58" t="s">
         <v>1156</v>
       </c>
-      <c r="K172" s="61" t="s">
+      <c r="K172" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="L172" s="61" t="s">
+      <c r="L172" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="M172" s="61" t="s">
+      <c r="M172" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="N172" s="61" t="s">
+      <c r="N172" s="58" t="s">
         <v>1158</v>
       </c>
-      <c r="O172" s="61"/>
-      <c r="P172" s="61"/>
+      <c r="O172" s="58"/>
+      <c r="P172" s="58"/>
       <c r="Q172" s="18"/>
       <c r="R172" s="18"/>
     </row>
@@ -20483,7 +20483,7 @@
       <c r="F173" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="G173" s="63" t="s">
+      <c r="G173" s="60" t="s">
         <v>32</v>
       </c>
       <c r="H173" s="45" t="s">
@@ -20560,7 +20560,7 @@
     <row r="175" spans="2:22">
       <c r="B175" s="12"/>
       <c r="C175" s="34"/>
-      <c r="D175" s="65"/>
+      <c r="D175" s="62"/>
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
@@ -20579,7 +20579,7 @@
     <row r="176" spans="2:22" ht="39.75">
       <c r="B176" s="17"/>
       <c r="C176" s="6"/>
-      <c r="D176" s="61"/>
+      <c r="D176" s="58"/>
       <c r="E176" s="18"/>
       <c r="F176" s="18"/>
       <c r="G176" s="18"/>
@@ -20643,64 +20643,64 @@
     <row r="179" spans="2:18">
       <c r="B179" s="12"/>
       <c r="C179" s="34"/>
-      <c r="D179" s="65"/>
-      <c r="E179" s="65"/>
-      <c r="F179" s="65"/>
-      <c r="G179" s="65"/>
-      <c r="H179" s="65"/>
-      <c r="I179" s="65"/>
-      <c r="J179" s="65"/>
-      <c r="K179" s="65"/>
-      <c r="L179" s="65"/>
-      <c r="M179" s="65"/>
-      <c r="N179" s="65"/>
-      <c r="O179" s="65"/>
-      <c r="P179" s="65"/>
-      <c r="Q179" s="65"/>
-      <c r="R179" s="65"/>
+      <c r="D179" s="62"/>
+      <c r="E179" s="62"/>
+      <c r="F179" s="62"/>
+      <c r="G179" s="62"/>
+      <c r="H179" s="62"/>
+      <c r="I179" s="62"/>
+      <c r="J179" s="62"/>
+      <c r="K179" s="62"/>
+      <c r="L179" s="62"/>
+      <c r="M179" s="62"/>
+      <c r="N179" s="62"/>
+      <c r="O179" s="62"/>
+      <c r="P179" s="62"/>
+      <c r="Q179" s="62"/>
+      <c r="R179" s="62"/>
     </row>
     <row r="180" spans="2:18" ht="39.75">
       <c r="B180" s="17"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="61" t="s">
+      <c r="D180" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="E180" s="61" t="s">
+      <c r="E180" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="F180" s="61" t="s">
+      <c r="F180" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="G180" s="61" t="s">
+      <c r="G180" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="H180" s="61"/>
-      <c r="I180" s="61" t="s">
+      <c r="H180" s="58"/>
+      <c r="I180" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="J180" s="61" t="s">
+      <c r="J180" s="58" t="s">
         <v>1160</v>
       </c>
-      <c r="K180" s="61" t="s">
+      <c r="K180" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="L180" s="61" t="s">
+      <c r="L180" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="M180" s="61"/>
-      <c r="N180" s="61" t="s">
+      <c r="M180" s="58"/>
+      <c r="N180" s="58" t="s">
         <v>1088</v>
       </c>
-      <c r="O180" s="61" t="s">
+      <c r="O180" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="P180" s="61" t="s">
+      <c r="P180" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="Q180" s="61" t="s">
+      <c r="Q180" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="R180" s="61"/>
+      <c r="R180" s="58"/>
     </row>
     <row r="181" spans="2:18" ht="58.5">
       <c r="B181" s="20">
@@ -20717,7 +20717,7 @@
       <c r="F181" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="G181" s="63" t="s">
+      <c r="G181" s="60" t="s">
         <v>117</v>
       </c>
       <c r="H181" s="45" t="s">
@@ -20800,68 +20800,68 @@
     <row r="183" spans="2:18">
       <c r="B183" s="12"/>
       <c r="C183" s="34"/>
-      <c r="D183" s="65" t="s">
+      <c r="D183" s="62" t="s">
         <v>876</v>
       </c>
-      <c r="E183" s="65" t="s">
+      <c r="E183" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F183" s="65"/>
-      <c r="G183" s="65"/>
-      <c r="H183" s="65"/>
-      <c r="I183" s="65"/>
-      <c r="J183" s="65"/>
-      <c r="K183" s="65"/>
-      <c r="L183" s="65"/>
-      <c r="M183" s="65"/>
-      <c r="N183" s="65"/>
-      <c r="O183" s="65"/>
-      <c r="P183" s="65"/>
-      <c r="Q183" s="65"/>
-      <c r="R183" s="65"/>
+      <c r="F183" s="62"/>
+      <c r="G183" s="62"/>
+      <c r="H183" s="62"/>
+      <c r="I183" s="62"/>
+      <c r="J183" s="62"/>
+      <c r="K183" s="62"/>
+      <c r="L183" s="62"/>
+      <c r="M183" s="62"/>
+      <c r="N183" s="62"/>
+      <c r="O183" s="62"/>
+      <c r="P183" s="62"/>
+      <c r="Q183" s="62"/>
+      <c r="R183" s="62"/>
     </row>
     <row r="184" spans="2:18" ht="39.75">
       <c r="B184" s="17"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="61" t="s">
+      <c r="D184" s="58" t="s">
         <v>1565</v>
       </c>
-      <c r="E184" s="61" t="s">
+      <c r="E184" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="F184" s="61" t="s">
+      <c r="F184" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="G184" s="61" t="s">
+      <c r="G184" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="H184" s="61"/>
-      <c r="I184" s="61" t="s">
+      <c r="H184" s="58"/>
+      <c r="I184" s="58" t="s">
         <v>1171</v>
       </c>
-      <c r="J184" s="61" t="s">
+      <c r="J184" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="K184" s="61" t="s">
+      <c r="K184" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="L184" s="61" t="s">
+      <c r="L184" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="M184" s="61"/>
-      <c r="N184" s="61" t="s">
+      <c r="M184" s="58"/>
+      <c r="N184" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="O184" s="61" t="s">
+      <c r="O184" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="P184" s="61" t="s">
+      <c r="P184" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="Q184" s="61" t="s">
+      <c r="Q184" s="58" t="s">
         <v>1163</v>
       </c>
-      <c r="R184" s="61"/>
+      <c r="R184" s="58"/>
     </row>
     <row r="185" spans="2:18" ht="58.5">
       <c r="B185" s="20">
@@ -20961,66 +20961,66 @@
     <row r="187" spans="2:18">
       <c r="B187" s="12"/>
       <c r="C187" s="34"/>
-      <c r="D187" s="65"/>
-      <c r="E187" s="65"/>
-      <c r="F187" s="65"/>
-      <c r="G187" s="65"/>
-      <c r="H187" s="65"/>
-      <c r="I187" s="65" t="s">
+      <c r="D187" s="62"/>
+      <c r="E187" s="62"/>
+      <c r="F187" s="62"/>
+      <c r="G187" s="62"/>
+      <c r="H187" s="62"/>
+      <c r="I187" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="J187" s="65"/>
-      <c r="K187" s="65"/>
-      <c r="L187" s="65"/>
-      <c r="M187" s="65"/>
-      <c r="N187" s="65"/>
-      <c r="O187" s="65"/>
-      <c r="P187" s="65"/>
-      <c r="Q187" s="65"/>
-      <c r="R187" s="65"/>
+      <c r="J187" s="62"/>
+      <c r="K187" s="62"/>
+      <c r="L187" s="62"/>
+      <c r="M187" s="62"/>
+      <c r="N187" s="62"/>
+      <c r="O187" s="62"/>
+      <c r="P187" s="62"/>
+      <c r="Q187" s="62"/>
+      <c r="R187" s="62"/>
     </row>
     <row r="188" spans="2:18" ht="39.75">
       <c r="B188" s="17"/>
       <c r="C188" s="6"/>
-      <c r="D188" s="61" t="s">
+      <c r="D188" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="E188" s="61" t="s">
+      <c r="E188" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="F188" s="61" t="s">
+      <c r="F188" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="G188" s="61" t="s">
+      <c r="G188" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="H188" s="61"/>
-      <c r="I188" s="61" t="s">
+      <c r="H188" s="58"/>
+      <c r="I188" s="58" t="s">
         <v>1023</v>
       </c>
-      <c r="J188" s="61" t="s">
+      <c r="J188" s="58" t="s">
         <v>949</v>
       </c>
-      <c r="K188" s="61" t="s">
+      <c r="K188" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="L188" s="61" t="s">
+      <c r="L188" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="M188" s="61"/>
-      <c r="N188" s="61" t="s">
+      <c r="M188" s="58"/>
+      <c r="N188" s="58" t="s">
         <v>964</v>
       </c>
-      <c r="O188" s="61" t="s">
+      <c r="O188" s="58" t="s">
         <v>840</v>
       </c>
-      <c r="P188" s="61" t="s">
+      <c r="P188" s="58" t="s">
         <v>964</v>
       </c>
-      <c r="Q188" s="61" t="s">
+      <c r="Q188" s="58" t="s">
         <v>782</v>
       </c>
-      <c r="R188" s="61"/>
+      <c r="R188" s="58"/>
     </row>
     <row r="189" spans="2:18" ht="58.5">
       <c r="B189" s="20">
@@ -21120,64 +21120,64 @@
     <row r="191" spans="2:18">
       <c r="B191" s="12"/>
       <c r="C191" s="34"/>
-      <c r="D191" s="65"/>
-      <c r="E191" s="65"/>
-      <c r="F191" s="65"/>
-      <c r="G191" s="65"/>
-      <c r="H191" s="65"/>
-      <c r="I191" s="65"/>
-      <c r="J191" s="65"/>
-      <c r="K191" s="65"/>
-      <c r="L191" s="65"/>
-      <c r="M191" s="65"/>
-      <c r="N191" s="65"/>
-      <c r="O191" s="65"/>
-      <c r="P191" s="65"/>
-      <c r="Q191" s="65"/>
-      <c r="R191" s="65"/>
+      <c r="D191" s="62"/>
+      <c r="E191" s="62"/>
+      <c r="F191" s="62"/>
+      <c r="G191" s="62"/>
+      <c r="H191" s="62"/>
+      <c r="I191" s="62"/>
+      <c r="J191" s="62"/>
+      <c r="K191" s="62"/>
+      <c r="L191" s="62"/>
+      <c r="M191" s="62"/>
+      <c r="N191" s="62"/>
+      <c r="O191" s="62"/>
+      <c r="P191" s="62"/>
+      <c r="Q191" s="62"/>
+      <c r="R191" s="62"/>
     </row>
     <row r="192" spans="2:18" ht="39.75">
       <c r="B192" s="17"/>
       <c r="C192" s="6"/>
-      <c r="D192" s="61" t="s">
+      <c r="D192" s="58" t="s">
         <v>980</v>
       </c>
-      <c r="E192" s="61" t="s">
+      <c r="E192" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="F192" s="61" t="s">
+      <c r="F192" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="G192" s="61" t="s">
+      <c r="G192" s="58" t="s">
         <v>1139</v>
       </c>
-      <c r="H192" s="61" t="s">
+      <c r="H192" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="I192" s="61" t="s">
+      <c r="I192" s="58" t="s">
         <v>1168</v>
       </c>
-      <c r="J192" s="61"/>
-      <c r="K192" s="61" t="s">
+      <c r="J192" s="58"/>
+      <c r="K192" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="L192" s="61" t="s">
+      <c r="L192" s="58" t="s">
         <v>957</v>
       </c>
-      <c r="M192" s="61" t="s">
+      <c r="M192" s="58" t="s">
         <v>1170</v>
       </c>
-      <c r="N192" s="61" t="s">
+      <c r="N192" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="O192" s="61" t="s">
+      <c r="O192" s="58" t="s">
         <v>1172</v>
       </c>
-      <c r="P192" s="61"/>
-      <c r="Q192" s="61" t="s">
+      <c r="P192" s="58"/>
+      <c r="Q192" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="R192" s="61" t="s">
+      <c r="R192" s="58" t="s">
         <v>269</v>
       </c>
     </row>
@@ -21196,7 +21196,7 @@
       <c r="F193" s="45" t="s">
         <v>492</v>
       </c>
-      <c r="G193" s="63" t="s">
+      <c r="G193" s="60" t="s">
         <v>408</v>
       </c>
       <c r="H193" s="45" t="s">
@@ -21281,64 +21281,64 @@
     <row r="195" spans="2:18">
       <c r="B195" s="12"/>
       <c r="C195" s="34"/>
-      <c r="D195" s="65"/>
-      <c r="E195" s="65"/>
-      <c r="F195" s="65"/>
-      <c r="G195" s="65"/>
-      <c r="H195" s="65"/>
-      <c r="I195" s="65"/>
-      <c r="J195" s="65"/>
-      <c r="K195" s="65"/>
-      <c r="L195" s="65"/>
-      <c r="M195" s="65"/>
-      <c r="N195" s="65"/>
-      <c r="O195" s="65"/>
-      <c r="P195" s="65"/>
-      <c r="Q195" s="65"/>
-      <c r="R195" s="65"/>
+      <c r="D195" s="62"/>
+      <c r="E195" s="62"/>
+      <c r="F195" s="62"/>
+      <c r="G195" s="62"/>
+      <c r="H195" s="62"/>
+      <c r="I195" s="62"/>
+      <c r="J195" s="62"/>
+      <c r="K195" s="62"/>
+      <c r="L195" s="62"/>
+      <c r="M195" s="62"/>
+      <c r="N195" s="62"/>
+      <c r="O195" s="62"/>
+      <c r="P195" s="62"/>
+      <c r="Q195" s="62"/>
+      <c r="R195" s="62"/>
     </row>
     <row r="196" spans="2:18" ht="39.75">
       <c r="B196" s="17"/>
       <c r="C196" s="6"/>
-      <c r="D196" s="61" t="s">
+      <c r="D196" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="E196" s="61" t="s">
+      <c r="E196" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="F196" s="61" t="s">
+      <c r="F196" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="G196" s="61" t="s">
+      <c r="G196" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="H196" s="61" t="s">
+      <c r="H196" s="58" t="s">
         <v>1173</v>
       </c>
-      <c r="I196" s="61" t="s">
+      <c r="I196" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="J196" s="61"/>
-      <c r="K196" s="61" t="s">
+      <c r="J196" s="58"/>
+      <c r="K196" s="58" t="s">
         <v>993</v>
       </c>
-      <c r="L196" s="61" t="s">
+      <c r="L196" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="M196" s="61" t="s">
+      <c r="M196" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="N196" s="61" t="s">
+      <c r="N196" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="O196" s="61" t="s">
+      <c r="O196" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="P196" s="61" t="s">
+      <c r="P196" s="58" t="s">
         <v>1034</v>
       </c>
-      <c r="Q196" s="61"/>
-      <c r="R196" s="61"/>
+      <c r="Q196" s="58"/>
+      <c r="R196" s="58"/>
     </row>
     <row r="197" spans="2:18" ht="58.5">
       <c r="B197" s="20">
@@ -21355,7 +21355,7 @@
       <c r="F197" s="45" t="s">
         <v>640</v>
       </c>
-      <c r="G197" s="63" t="s">
+      <c r="G197" s="60" t="s">
         <v>661</v>
       </c>
       <c r="H197" s="45" t="s">
@@ -21440,7 +21440,7 @@
     <row r="199" spans="2:18">
       <c r="B199" s="12"/>
       <c r="C199" s="34"/>
-      <c r="D199" s="65"/>
+      <c r="D199" s="62"/>
       <c r="E199" s="14"/>
       <c r="F199" s="14"/>
       <c r="G199" s="14"/>
@@ -21459,7 +21459,7 @@
     <row r="200" spans="2:18" ht="39.75">
       <c r="B200" s="17"/>
       <c r="C200" s="6"/>
-      <c r="D200" s="61"/>
+      <c r="D200" s="58"/>
       <c r="E200" s="37"/>
       <c r="F200" s="37"/>
       <c r="G200" s="37"/>
@@ -21523,70 +21523,70 @@
     <row r="203" spans="2:18">
       <c r="B203" s="12"/>
       <c r="C203" s="34"/>
-      <c r="D203" s="65" t="s">
+      <c r="D203" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="E203" s="65"/>
-      <c r="F203" s="65"/>
-      <c r="G203" s="65"/>
-      <c r="H203" s="65"/>
-      <c r="I203" s="65" t="s">
+      <c r="E203" s="62"/>
+      <c r="F203" s="62"/>
+      <c r="G203" s="62"/>
+      <c r="H203" s="62"/>
+      <c r="I203" s="62" t="s">
         <v>365</v>
       </c>
-      <c r="J203" s="65"/>
-      <c r="K203" s="65"/>
-      <c r="L203" s="65"/>
-      <c r="M203" s="65"/>
-      <c r="N203" s="65"/>
-      <c r="O203" s="65"/>
-      <c r="P203" s="65"/>
-      <c r="Q203" s="65" t="s">
+      <c r="J203" s="62"/>
+      <c r="K203" s="62"/>
+      <c r="L203" s="62"/>
+      <c r="M203" s="62"/>
+      <c r="N203" s="62"/>
+      <c r="O203" s="62"/>
+      <c r="P203" s="62"/>
+      <c r="Q203" s="62" t="s">
         <v>384</v>
       </c>
-      <c r="R203" s="65"/>
+      <c r="R203" s="62"/>
     </row>
     <row r="204" spans="2:18" ht="39.75">
       <c r="B204" s="17"/>
       <c r="C204" s="6"/>
-      <c r="D204" s="61" t="s">
+      <c r="D204" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="E204" s="66" t="s">
+      <c r="E204" s="63" t="s">
         <v>1176</v>
       </c>
-      <c r="F204" s="66" t="s">
+      <c r="F204" s="63" t="s">
         <v>1057</v>
       </c>
-      <c r="G204" s="66" t="s">
+      <c r="G204" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="H204" s="66" t="s">
+      <c r="H204" s="63" t="s">
         <v>1178</v>
       </c>
-      <c r="I204" s="66" t="s">
+      <c r="I204" s="63" t="s">
         <v>1127</v>
       </c>
-      <c r="J204" s="66"/>
-      <c r="K204" s="66" t="s">
+      <c r="J204" s="63"/>
+      <c r="K204" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="L204" s="66" t="s">
+      <c r="L204" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="M204" s="66" t="s">
+      <c r="M204" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="N204" s="66" t="s">
+      <c r="N204" s="63" t="s">
         <v>1065</v>
       </c>
-      <c r="O204" s="66"/>
-      <c r="P204" s="66" t="s">
+      <c r="O204" s="63"/>
+      <c r="P204" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="Q204" s="66" t="s">
+      <c r="Q204" s="63" t="s">
         <v>1587</v>
       </c>
-      <c r="R204" s="66" t="s">
+      <c r="R204" s="63" t="s">
         <v>1580</v>
       </c>
     </row>
@@ -21605,7 +21605,7 @@
       <c r="F205" s="45" t="s">
         <v>689</v>
       </c>
-      <c r="G205" s="63" t="s">
+      <c r="G205" s="60" t="s">
         <v>113</v>
       </c>
       <c r="H205" s="45" t="s">
@@ -21690,66 +21690,66 @@
     <row r="207" spans="2:18">
       <c r="B207" s="12"/>
       <c r="C207" s="34"/>
-      <c r="D207" s="65"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="65"/>
-      <c r="G207" s="65"/>
-      <c r="H207" s="65"/>
-      <c r="I207" s="65"/>
-      <c r="J207" s="65" t="s">
+      <c r="D207" s="62"/>
+      <c r="E207" s="62"/>
+      <c r="F207" s="62"/>
+      <c r="G207" s="62"/>
+      <c r="H207" s="62"/>
+      <c r="I207" s="62"/>
+      <c r="J207" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="K207" s="65"/>
-      <c r="L207" s="65"/>
-      <c r="M207" s="65"/>
-      <c r="N207" s="65"/>
-      <c r="O207" s="65"/>
-      <c r="P207" s="65"/>
-      <c r="Q207" s="65"/>
-      <c r="R207" s="65"/>
+      <c r="K207" s="62"/>
+      <c r="L207" s="62"/>
+      <c r="M207" s="62"/>
+      <c r="N207" s="62"/>
+      <c r="O207" s="62"/>
+      <c r="P207" s="62"/>
+      <c r="Q207" s="62"/>
+      <c r="R207" s="62"/>
     </row>
     <row r="208" spans="2:18" ht="39.75">
       <c r="B208" s="17"/>
       <c r="C208" s="6"/>
-      <c r="D208" s="61" t="s">
+      <c r="D208" s="58" t="s">
         <v>1048</v>
       </c>
-      <c r="E208" s="61"/>
-      <c r="F208" s="61" t="s">
+      <c r="E208" s="58"/>
+      <c r="F208" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="G208" s="61" t="s">
+      <c r="G208" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="H208" s="61" t="s">
+      <c r="H208" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="I208" s="61" t="s">
+      <c r="I208" s="58" t="s">
         <v>1182</v>
       </c>
-      <c r="J208" s="61" t="s">
+      <c r="J208" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="K208" s="61" t="s">
+      <c r="K208" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="L208" s="61" t="s">
+      <c r="L208" s="58" t="s">
         <v>1158</v>
       </c>
-      <c r="M208" s="61"/>
-      <c r="N208" s="61" t="s">
+      <c r="M208" s="58"/>
+      <c r="N208" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="O208" s="61" t="s">
+      <c r="O208" s="58" t="s">
         <v>854</v>
       </c>
-      <c r="P208" s="61" t="s">
+      <c r="P208" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="Q208" s="61" t="s">
+      <c r="Q208" s="58" t="s">
         <v>1182</v>
       </c>
-      <c r="R208" s="61" t="s">
+      <c r="R208" s="58" t="s">
         <v>237</v>
       </c>
     </row>
@@ -21768,7 +21768,7 @@
       <c r="F209" s="45" t="s">
         <v>610</v>
       </c>
-      <c r="G209" s="63" t="s">
+      <c r="G209" s="60" t="s">
         <v>340</v>
       </c>
       <c r="H209" s="45" t="s">
@@ -21853,62 +21853,62 @@
     <row r="211" spans="2:18">
       <c r="B211" s="12"/>
       <c r="C211" s="34"/>
-      <c r="D211" s="65"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="65"/>
-      <c r="G211" s="65"/>
-      <c r="H211" s="65"/>
-      <c r="I211" s="65"/>
-      <c r="J211" s="65"/>
-      <c r="K211" s="65"/>
-      <c r="L211" s="65"/>
-      <c r="M211" s="65"/>
-      <c r="N211" s="65"/>
-      <c r="O211" s="65"/>
-      <c r="P211" s="65"/>
-      <c r="Q211" s="65"/>
-      <c r="R211" s="65"/>
+      <c r="D211" s="62"/>
+      <c r="E211" s="62"/>
+      <c r="F211" s="62"/>
+      <c r="G211" s="62"/>
+      <c r="H211" s="62"/>
+      <c r="I211" s="62"/>
+      <c r="J211" s="62"/>
+      <c r="K211" s="62"/>
+      <c r="L211" s="62"/>
+      <c r="M211" s="62"/>
+      <c r="N211" s="62"/>
+      <c r="O211" s="62"/>
+      <c r="P211" s="62"/>
+      <c r="Q211" s="62"/>
+      <c r="R211" s="62"/>
     </row>
     <row r="212" spans="2:18" ht="39.75">
       <c r="B212" s="17"/>
       <c r="C212" s="6"/>
-      <c r="D212" s="61" t="s">
+      <c r="D212" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="E212" s="61" t="s">
+      <c r="E212" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="F212" s="61"/>
-      <c r="G212" s="61" t="s">
+      <c r="F212" s="58"/>
+      <c r="G212" s="58" t="s">
         <v>784</v>
       </c>
-      <c r="H212" s="61" t="s">
+      <c r="H212" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="I212" s="61" t="s">
+      <c r="I212" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="J212" s="61"/>
-      <c r="K212" s="61" t="s">
+      <c r="J212" s="58"/>
+      <c r="K212" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="L212" s="61" t="s">
+      <c r="L212" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="M212" s="61" t="s">
+      <c r="M212" s="58" t="s">
         <v>1183</v>
       </c>
-      <c r="N212" s="61"/>
-      <c r="O212" s="61" t="s">
+      <c r="N212" s="58"/>
+      <c r="O212" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="P212" s="61" t="s">
+      <c r="P212" s="58" t="s">
         <v>990</v>
       </c>
-      <c r="Q212" s="61" t="s">
+      <c r="Q212" s="58" t="s">
         <v>1026</v>
       </c>
-      <c r="R212" s="61" t="s">
+      <c r="R212" s="58" t="s">
         <v>960</v>
       </c>
     </row>
@@ -21927,7 +21927,7 @@
       <c r="F213" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G213" s="63" t="s">
+      <c r="G213" s="60" t="s">
         <v>18</v>
       </c>
       <c r="H213" s="45" t="s">
@@ -22010,14 +22010,14 @@
     <row r="215" spans="2:18">
       <c r="B215" s="12"/>
       <c r="C215" s="34"/>
-      <c r="D215" s="65"/>
-      <c r="E215" s="65"/>
-      <c r="F215" s="65"/>
-      <c r="G215" s="65"/>
-      <c r="H215" s="65"/>
-      <c r="I215" s="65"/>
-      <c r="J215" s="65"/>
-      <c r="K215" s="65"/>
+      <c r="D215" s="62"/>
+      <c r="E215" s="62"/>
+      <c r="F215" s="62"/>
+      <c r="G215" s="62"/>
+      <c r="H215" s="62"/>
+      <c r="I215" s="62"/>
+      <c r="J215" s="62"/>
+      <c r="K215" s="62"/>
       <c r="L215" s="14"/>
       <c r="M215" s="14"/>
       <c r="N215" s="14"/>
@@ -22029,24 +22029,24 @@
     <row r="216" spans="2:18" ht="39.75">
       <c r="B216" s="17"/>
       <c r="C216" s="6"/>
-      <c r="D216" s="61"/>
-      <c r="E216" s="61" t="s">
+      <c r="D216" s="58"/>
+      <c r="E216" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="F216" s="61" t="s">
+      <c r="F216" s="58" t="s">
         <v>1026</v>
       </c>
-      <c r="G216" s="61" t="s">
+      <c r="G216" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="H216" s="61" t="s">
+      <c r="H216" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="I216" s="61" t="s">
+      <c r="I216" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="J216" s="61"/>
-      <c r="K216" s="61"/>
+      <c r="J216" s="58"/>
+      <c r="K216" s="58"/>
       <c r="L216" s="18"/>
       <c r="M216" s="18"/>
       <c r="N216" s="18"/>
@@ -22070,7 +22070,7 @@
       <c r="F217" s="45" t="s">
         <v>553</v>
       </c>
-      <c r="G217" s="63" t="s">
+      <c r="G217" s="60" t="s">
         <v>86</v>
       </c>
       <c r="H217" s="45" t="s">
@@ -22127,7 +22127,7 @@
     <row r="219" spans="2:18">
       <c r="B219" s="12"/>
       <c r="C219" s="34"/>
-      <c r="D219" s="65"/>
+      <c r="D219" s="62"/>
       <c r="E219" s="14"/>
       <c r="F219" s="14"/>
       <c r="G219" s="14"/>
@@ -22146,7 +22146,7 @@
     <row r="220" spans="2:18" ht="39.75">
       <c r="B220" s="17"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="61"/>
+      <c r="D220" s="58"/>
       <c r="E220" s="18"/>
       <c r="F220" s="18"/>
       <c r="G220" s="18"/>
@@ -22210,64 +22210,64 @@
     <row r="223" spans="2:18">
       <c r="B223" s="12"/>
       <c r="C223" s="34"/>
-      <c r="D223" s="65"/>
-      <c r="E223" s="65"/>
-      <c r="F223" s="65"/>
-      <c r="G223" s="65"/>
-      <c r="H223" s="65"/>
-      <c r="I223" s="65"/>
-      <c r="J223" s="65"/>
-      <c r="K223" s="65"/>
-      <c r="L223" s="65"/>
-      <c r="M223" s="65"/>
-      <c r="N223" s="65"/>
-      <c r="O223" s="65"/>
-      <c r="P223" s="65"/>
-      <c r="Q223" s="65"/>
-      <c r="R223" s="65"/>
+      <c r="D223" s="62"/>
+      <c r="E223" s="62"/>
+      <c r="F223" s="62"/>
+      <c r="G223" s="62"/>
+      <c r="H223" s="62"/>
+      <c r="I223" s="62"/>
+      <c r="J223" s="62"/>
+      <c r="K223" s="62"/>
+      <c r="L223" s="62"/>
+      <c r="M223" s="62"/>
+      <c r="N223" s="62"/>
+      <c r="O223" s="62"/>
+      <c r="P223" s="62"/>
+      <c r="Q223" s="62"/>
+      <c r="R223" s="62"/>
     </row>
     <row r="224" spans="2:18" ht="39.75">
       <c r="B224" s="17"/>
       <c r="C224" s="6"/>
-      <c r="D224" s="61" t="s">
+      <c r="D224" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="E224" s="61" t="s">
+      <c r="E224" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="F224" s="61" t="s">
+      <c r="F224" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="G224" s="61" t="s">
+      <c r="G224" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="H224" s="61"/>
-      <c r="I224" s="61" t="s">
+      <c r="H224" s="58"/>
+      <c r="I224" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="J224" s="61" t="s">
+      <c r="J224" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="K224" s="61" t="s">
+      <c r="K224" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="L224" s="61" t="s">
+      <c r="L224" s="58" t="s">
         <v>1190</v>
       </c>
-      <c r="M224" s="61"/>
-      <c r="N224" s="61" t="s">
+      <c r="M224" s="58"/>
+      <c r="N224" s="58" t="s">
         <v>976</v>
       </c>
-      <c r="O224" s="61" t="s">
+      <c r="O224" s="58" t="s">
         <v>1192</v>
       </c>
-      <c r="P224" s="61" t="s">
+      <c r="P224" s="58" t="s">
         <v>1064</v>
       </c>
-      <c r="Q224" s="61" t="s">
+      <c r="Q224" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="R224" s="61"/>
+      <c r="R224" s="58"/>
     </row>
     <row r="225" spans="2:18" ht="58.5">
       <c r="B225" s="20">
@@ -22284,7 +22284,7 @@
       <c r="F225" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G225" s="63" t="s">
+      <c r="G225" s="60" t="s">
         <v>114</v>
       </c>
       <c r="H225" s="45" t="s">
@@ -22367,66 +22367,66 @@
     <row r="227" spans="2:18">
       <c r="B227" s="12"/>
       <c r="C227" s="34"/>
-      <c r="D227" s="65"/>
-      <c r="E227" s="65"/>
-      <c r="F227" s="65"/>
-      <c r="G227" s="65"/>
-      <c r="H227" s="65"/>
-      <c r="I227" s="65"/>
-      <c r="J227" s="65"/>
-      <c r="K227" s="65"/>
-      <c r="L227" s="65"/>
-      <c r="M227" s="65"/>
-      <c r="N227" s="65"/>
-      <c r="O227" s="65"/>
-      <c r="P227" s="65"/>
-      <c r="Q227" s="65"/>
-      <c r="R227" s="65"/>
+      <c r="D227" s="62"/>
+      <c r="E227" s="62"/>
+      <c r="F227" s="62"/>
+      <c r="G227" s="62"/>
+      <c r="H227" s="62"/>
+      <c r="I227" s="62"/>
+      <c r="J227" s="62"/>
+      <c r="K227" s="62"/>
+      <c r="L227" s="62"/>
+      <c r="M227" s="62"/>
+      <c r="N227" s="62"/>
+      <c r="O227" s="62"/>
+      <c r="P227" s="62"/>
+      <c r="Q227" s="62"/>
+      <c r="R227" s="62"/>
     </row>
     <row r="228" spans="2:18" ht="39.75">
       <c r="B228" s="17"/>
       <c r="C228" s="6"/>
-      <c r="D228" s="61" t="s">
+      <c r="D228" s="58" t="s">
         <v>1025</v>
       </c>
-      <c r="E228" s="61" t="s">
+      <c r="E228" s="58" t="s">
         <v>1120</v>
       </c>
-      <c r="F228" s="61" t="s">
+      <c r="F228" s="58" t="s">
         <v>1509</v>
       </c>
-      <c r="G228" s="61" t="s">
+      <c r="G228" s="58" t="s">
         <v>1093</v>
       </c>
-      <c r="H228" s="61" t="s">
+      <c r="H228" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="I228" s="61" t="s">
+      <c r="I228" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="J228" s="61" t="s">
+      <c r="J228" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="K228" s="61" t="s">
+      <c r="K228" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="L228" s="61" t="s">
+      <c r="L228" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="M228" s="61"/>
-      <c r="N228" s="61" t="s">
+      <c r="M228" s="58"/>
+      <c r="N228" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="O228" s="61" t="s">
+      <c r="O228" s="58" t="s">
         <v>1194</v>
       </c>
-      <c r="P228" s="61" t="s">
+      <c r="P228" s="58" t="s">
         <v>1195</v>
       </c>
-      <c r="Q228" s="61" t="s">
+      <c r="Q228" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="R228" s="61" t="s">
+      <c r="R228" s="58" t="s">
         <v>262</v>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       <c r="F229" s="45" t="s">
         <v>798</v>
       </c>
-      <c r="G229" s="63" t="s">
+      <c r="G229" s="60" t="s">
         <v>769</v>
       </c>
       <c r="H229" s="45" t="s">
@@ -22532,64 +22532,64 @@
     <row r="231" spans="2:18">
       <c r="B231" s="12"/>
       <c r="C231" s="34"/>
-      <c r="D231" s="65"/>
-      <c r="E231" s="65"/>
-      <c r="F231" s="65"/>
-      <c r="G231" s="65"/>
-      <c r="H231" s="65"/>
-      <c r="I231" s="65"/>
-      <c r="J231" s="65"/>
-      <c r="K231" s="65"/>
-      <c r="L231" s="65"/>
-      <c r="M231" s="65"/>
-      <c r="N231" s="65"/>
-      <c r="O231" s="65"/>
-      <c r="P231" s="65"/>
-      <c r="Q231" s="65"/>
-      <c r="R231" s="65"/>
+      <c r="D231" s="62"/>
+      <c r="E231" s="62"/>
+      <c r="F231" s="62"/>
+      <c r="G231" s="62"/>
+      <c r="H231" s="62"/>
+      <c r="I231" s="62"/>
+      <c r="J231" s="62"/>
+      <c r="K231" s="62"/>
+      <c r="L231" s="62"/>
+      <c r="M231" s="62"/>
+      <c r="N231" s="62"/>
+      <c r="O231" s="62"/>
+      <c r="P231" s="62"/>
+      <c r="Q231" s="62"/>
+      <c r="R231" s="62"/>
     </row>
     <row r="232" spans="2:18" ht="39.75">
       <c r="B232" s="17"/>
       <c r="C232" s="6"/>
-      <c r="D232" s="61" t="s">
+      <c r="D232" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="E232" s="61" t="s">
+      <c r="E232" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="F232" s="61" t="s">
+      <c r="F232" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="G232" s="61" t="s">
+      <c r="G232" s="58" t="s">
         <v>784</v>
       </c>
-      <c r="H232" s="61"/>
-      <c r="I232" s="61" t="s">
+      <c r="H232" s="58"/>
+      <c r="I232" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="J232" s="61" t="s">
+      <c r="J232" s="58" t="s">
         <v>1511</v>
       </c>
-      <c r="K232" s="61" t="s">
+      <c r="K232" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="L232" s="61" t="s">
+      <c r="L232" s="58" t="s">
         <v>1198</v>
       </c>
-      <c r="M232" s="61" t="s">
+      <c r="M232" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="N232" s="61" t="s">
+      <c r="N232" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="O232" s="61"/>
-      <c r="P232" s="61" t="s">
+      <c r="O232" s="58"/>
+      <c r="P232" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="Q232" s="61" t="s">
+      <c r="Q232" s="58" t="s">
         <v>1201</v>
       </c>
-      <c r="R232" s="61" t="s">
+      <c r="R232" s="58" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -22608,7 +22608,7 @@
       <c r="F233" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G233" s="63" t="s">
+      <c r="G233" s="60" t="s">
         <v>18</v>
       </c>
       <c r="H233" s="45" t="s">
@@ -22693,66 +22693,66 @@
     <row r="235" spans="2:18">
       <c r="B235" s="12"/>
       <c r="C235" s="34"/>
-      <c r="D235" s="65"/>
-      <c r="E235" s="65"/>
-      <c r="F235" s="65"/>
-      <c r="G235" s="65"/>
-      <c r="H235" s="65"/>
-      <c r="I235" s="65"/>
-      <c r="J235" s="65"/>
-      <c r="K235" s="65"/>
-      <c r="L235" s="65"/>
-      <c r="M235" s="65"/>
-      <c r="N235" s="65"/>
-      <c r="O235" s="65" t="s">
+      <c r="D235" s="62"/>
+      <c r="E235" s="62"/>
+      <c r="F235" s="62"/>
+      <c r="G235" s="62"/>
+      <c r="H235" s="62"/>
+      <c r="I235" s="62"/>
+      <c r="J235" s="62"/>
+      <c r="K235" s="62"/>
+      <c r="L235" s="62"/>
+      <c r="M235" s="62"/>
+      <c r="N235" s="62"/>
+      <c r="O235" s="62" t="s">
         <v>622</v>
       </c>
-      <c r="P235" s="65"/>
-      <c r="Q235" s="65"/>
-      <c r="R235" s="65"/>
+      <c r="P235" s="62"/>
+      <c r="Q235" s="62"/>
+      <c r="R235" s="62"/>
     </row>
     <row r="236" spans="2:18" ht="39.75">
       <c r="B236" s="17"/>
       <c r="C236" s="6"/>
-      <c r="D236" s="61" t="s">
+      <c r="D236" s="58" t="s">
         <v>1205</v>
       </c>
-      <c r="E236" s="61" t="s">
+      <c r="E236" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="F236" s="61" t="s">
+      <c r="F236" s="58" t="s">
         <v>1207</v>
       </c>
-      <c r="G236" s="61"/>
-      <c r="H236" s="61" t="s">
+      <c r="G236" s="58"/>
+      <c r="H236" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="I236" s="61" t="s">
+      <c r="I236" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="J236" s="61" t="s">
+      <c r="J236" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="K236" s="61" t="s">
+      <c r="K236" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="L236" s="61" t="s">
+      <c r="L236" s="58" t="s">
         <v>1209</v>
       </c>
-      <c r="M236" s="61" t="s">
+      <c r="M236" s="58" t="s">
         <v>1210</v>
       </c>
-      <c r="N236" s="61" t="s">
+      <c r="N236" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="O236" s="61" t="s">
+      <c r="O236" s="58" t="s">
         <v>1227</v>
       </c>
-      <c r="P236" s="61"/>
-      <c r="Q236" s="61" t="s">
+      <c r="P236" s="58"/>
+      <c r="Q236" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="R236" s="61" t="s">
+      <c r="R236" s="58" t="s">
         <v>854</v>
       </c>
     </row>
@@ -22771,7 +22771,7 @@
       <c r="F237" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="G237" s="63" t="s">
+      <c r="G237" s="60" t="s">
         <v>66</v>
       </c>
       <c r="H237" s="45" t="s">
@@ -22856,64 +22856,64 @@
     <row r="239" spans="2:18">
       <c r="B239" s="12"/>
       <c r="C239" s="34"/>
-      <c r="D239" s="65"/>
-      <c r="E239" s="65"/>
-      <c r="F239" s="65"/>
-      <c r="G239" s="65"/>
-      <c r="H239" s="65"/>
-      <c r="I239" s="65"/>
-      <c r="J239" s="65"/>
-      <c r="K239" s="65"/>
-      <c r="L239" s="65"/>
-      <c r="M239" s="65"/>
-      <c r="N239" s="65"/>
-      <c r="O239" s="65"/>
-      <c r="P239" s="65"/>
-      <c r="Q239" s="65"/>
-      <c r="R239" s="65"/>
+      <c r="D239" s="62"/>
+      <c r="E239" s="62"/>
+      <c r="F239" s="62"/>
+      <c r="G239" s="62"/>
+      <c r="H239" s="62"/>
+      <c r="I239" s="62"/>
+      <c r="J239" s="62"/>
+      <c r="K239" s="62"/>
+      <c r="L239" s="62"/>
+      <c r="M239" s="62"/>
+      <c r="N239" s="62"/>
+      <c r="O239" s="62"/>
+      <c r="P239" s="62"/>
+      <c r="Q239" s="62"/>
+      <c r="R239" s="62"/>
     </row>
     <row r="240" spans="2:18" ht="39.75">
       <c r="B240" s="17"/>
       <c r="C240" s="6"/>
-      <c r="D240" s="61" t="s">
+      <c r="D240" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="E240" s="61" t="s">
+      <c r="E240" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="F240" s="61" t="s">
+      <c r="F240" s="58" t="s">
         <v>1212</v>
       </c>
-      <c r="G240" s="61" t="s">
+      <c r="G240" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="H240" s="61" t="s">
+      <c r="H240" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="I240" s="61" t="s">
+      <c r="I240" s="58" t="s">
         <v>1060</v>
       </c>
-      <c r="J240" s="61"/>
-      <c r="K240" s="61" t="s">
+      <c r="J240" s="58"/>
+      <c r="K240" s="58" t="s">
         <v>1214</v>
       </c>
-      <c r="L240" s="61" t="s">
+      <c r="L240" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="M240" s="61" t="s">
+      <c r="M240" s="58" t="s">
         <v>1075</v>
       </c>
-      <c r="N240" s="61" t="s">
+      <c r="N240" s="58" t="s">
         <v>1217</v>
       </c>
-      <c r="O240" s="61" t="s">
+      <c r="O240" s="58" t="s">
         <v>1219</v>
       </c>
-      <c r="P240" s="61" t="s">
+      <c r="P240" s="58" t="s">
         <v>1221</v>
       </c>
-      <c r="Q240" s="61"/>
-      <c r="R240" s="61" t="s">
+      <c r="Q240" s="58"/>
+      <c r="R240" s="58" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -22932,7 +22932,7 @@
       <c r="F241" s="45" t="s">
         <v>619</v>
       </c>
-      <c r="G241" s="63" t="s">
+      <c r="G241" s="60" t="s">
         <v>758</v>
       </c>
       <c r="H241" s="45" t="s">
@@ -23017,64 +23017,64 @@
     <row r="243" spans="2:18">
       <c r="B243" s="12"/>
       <c r="C243" s="34"/>
-      <c r="D243" s="65"/>
-      <c r="E243" s="65"/>
-      <c r="F243" s="65"/>
-      <c r="G243" s="65" t="s">
+      <c r="D243" s="62"/>
+      <c r="E243" s="62"/>
+      <c r="F243" s="62"/>
+      <c r="G243" s="62" t="s">
         <v>581</v>
       </c>
-      <c r="H243" s="65"/>
-      <c r="I243" s="65"/>
-      <c r="J243" s="65"/>
-      <c r="K243" s="65"/>
-      <c r="L243" s="65"/>
-      <c r="M243" s="65"/>
-      <c r="N243" s="65"/>
-      <c r="O243" s="65"/>
-      <c r="P243" s="65"/>
-      <c r="Q243" s="65"/>
-      <c r="R243" s="65"/>
+      <c r="H243" s="62"/>
+      <c r="I243" s="62"/>
+      <c r="J243" s="62"/>
+      <c r="K243" s="62"/>
+      <c r="L243" s="62"/>
+      <c r="M243" s="62"/>
+      <c r="N243" s="62"/>
+      <c r="O243" s="62"/>
+      <c r="P243" s="62"/>
+      <c r="Q243" s="62"/>
+      <c r="R243" s="62"/>
     </row>
     <row r="244" spans="2:18" ht="39.75">
       <c r="B244" s="17"/>
       <c r="C244" s="6"/>
-      <c r="D244" s="61" t="s">
+      <c r="D244" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="E244" s="61" t="s">
+      <c r="E244" s="58" t="s">
         <v>1225</v>
       </c>
-      <c r="F244" s="61" t="s">
+      <c r="F244" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="G244" s="61" t="s">
+      <c r="G244" s="58" t="s">
         <v>1589</v>
       </c>
-      <c r="H244" s="61" t="s">
+      <c r="H244" s="58" t="s">
         <v>1227</v>
       </c>
-      <c r="I244" s="61"/>
-      <c r="J244" s="61" t="s">
+      <c r="I244" s="58"/>
+      <c r="J244" s="58" t="s">
         <v>784</v>
       </c>
-      <c r="K244" s="61" t="s">
+      <c r="K244" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="L244" s="61" t="s">
+      <c r="L244" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="M244" s="61"/>
-      <c r="N244" s="61" t="s">
+      <c r="M244" s="58"/>
+      <c r="N244" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="O244" s="61" t="s">
+      <c r="O244" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="P244" s="61" t="s">
+      <c r="P244" s="58" t="s">
         <v>1128</v>
       </c>
-      <c r="Q244" s="61"/>
-      <c r="R244" s="61" t="s">
+      <c r="Q244" s="58"/>
+      <c r="R244" s="58" t="s">
         <v>229</v>
       </c>
     </row>
@@ -23176,64 +23176,64 @@
     <row r="247" spans="2:18">
       <c r="B247" s="12"/>
       <c r="C247" s="34"/>
-      <c r="D247" s="65"/>
-      <c r="E247" s="65"/>
-      <c r="F247" s="65"/>
-      <c r="G247" s="65"/>
-      <c r="H247" s="65"/>
-      <c r="I247" s="65"/>
-      <c r="J247" s="65"/>
-      <c r="K247" s="65"/>
-      <c r="L247" s="65"/>
-      <c r="M247" s="65"/>
-      <c r="N247" s="65"/>
-      <c r="O247" s="65"/>
-      <c r="P247" s="65"/>
-      <c r="Q247" s="65"/>
-      <c r="R247" s="65"/>
+      <c r="D247" s="62"/>
+      <c r="E247" s="62"/>
+      <c r="F247" s="62"/>
+      <c r="G247" s="62"/>
+      <c r="H247" s="62"/>
+      <c r="I247" s="62"/>
+      <c r="J247" s="62"/>
+      <c r="K247" s="62"/>
+      <c r="L247" s="62"/>
+      <c r="M247" s="62"/>
+      <c r="N247" s="62"/>
+      <c r="O247" s="62"/>
+      <c r="P247" s="62"/>
+      <c r="Q247" s="62"/>
+      <c r="R247" s="62"/>
     </row>
     <row r="248" spans="2:18" ht="39.75">
       <c r="B248" s="17"/>
       <c r="C248" s="6"/>
-      <c r="D248" s="61" t="s">
+      <c r="D248" s="58" t="s">
         <v>990</v>
       </c>
-      <c r="E248" s="61" t="s">
+      <c r="E248" s="58" t="s">
         <v>1026</v>
       </c>
-      <c r="F248" s="61" t="s">
+      <c r="F248" s="58" t="s">
         <v>957</v>
       </c>
-      <c r="G248" s="61"/>
-      <c r="H248" s="61" t="s">
+      <c r="G248" s="58"/>
+      <c r="H248" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="I248" s="61" t="s">
+      <c r="I248" s="58" t="s">
         <v>1026</v>
       </c>
-      <c r="J248" s="61" t="s">
+      <c r="J248" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="K248" s="61" t="s">
+      <c r="K248" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="L248" s="61" t="s">
+      <c r="L248" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="M248" s="61"/>
-      <c r="N248" s="61" t="s">
+      <c r="M248" s="58"/>
+      <c r="N248" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="O248" s="61" t="s">
+      <c r="O248" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="P248" s="61" t="s">
+      <c r="P248" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="Q248" s="61" t="s">
+      <c r="Q248" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="R248" s="61"/>
+      <c r="R248" s="58"/>
     </row>
     <row r="249" spans="2:18" ht="58.5">
       <c r="B249" s="20">
@@ -23250,7 +23250,7 @@
       <c r="F249" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="G249" s="63" t="s">
+      <c r="G249" s="60" t="s">
         <v>22</v>
       </c>
       <c r="H249" s="45" t="s">
@@ -23333,14 +23333,14 @@
     <row r="251" spans="2:18">
       <c r="B251" s="12"/>
       <c r="C251" s="34"/>
-      <c r="D251" s="65"/>
-      <c r="E251" s="65"/>
-      <c r="F251" s="65"/>
-      <c r="G251" s="65"/>
-      <c r="H251" s="65"/>
-      <c r="I251" s="65"/>
-      <c r="J251" s="65"/>
-      <c r="K251" s="65"/>
+      <c r="D251" s="62"/>
+      <c r="E251" s="62"/>
+      <c r="F251" s="62"/>
+      <c r="G251" s="62"/>
+      <c r="H251" s="62"/>
+      <c r="I251" s="62"/>
+      <c r="J251" s="62"/>
+      <c r="K251" s="62"/>
       <c r="L251" s="14"/>
       <c r="M251" s="14"/>
       <c r="N251" s="14"/>
@@ -23352,22 +23352,22 @@
     <row r="252" spans="2:18" ht="39.75">
       <c r="B252" s="17"/>
       <c r="C252" s="6"/>
-      <c r="D252" s="61" t="s">
+      <c r="D252" s="58" t="s">
         <v>949</v>
       </c>
-      <c r="E252" s="61" t="s">
+      <c r="E252" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="F252" s="61"/>
-      <c r="G252" s="61" t="s">
+      <c r="F252" s="58"/>
+      <c r="G252" s="58" t="s">
         <v>980</v>
       </c>
-      <c r="H252" s="61" t="s">
+      <c r="H252" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="I252" s="61"/>
-      <c r="J252" s="61"/>
-      <c r="K252" s="61"/>
+      <c r="I252" s="58"/>
+      <c r="J252" s="58"/>
+      <c r="K252" s="58"/>
       <c r="L252" s="18"/>
       <c r="M252" s="18"/>
       <c r="N252" s="18"/>
@@ -23391,7 +23391,7 @@
       <c r="F253" s="45" t="s">
         <v>772</v>
       </c>
-      <c r="G253" s="63" t="s">
+      <c r="G253" s="60" t="s">
         <v>427</v>
       </c>
       <c r="H253" s="45" t="s">
